--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
-    <sheet name="accidents" sheetId="2" r:id="rId2"/>
+    <sheet name="syn_data1" sheetId="3" r:id="rId2"/>
+    <sheet name="syn_data2" sheetId="4" r:id="rId3"/>
+    <sheet name="accidents" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="13">
   <si>
     <t>K=1</t>
   </si>
@@ -526,8 +528,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194738832"/>
-        <c:axId val="194731760"/>
+        <c:axId val="-83971248"/>
+        <c:axId val="-83960912"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1199,7 +1201,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194738832"/>
+        <c:axId val="-83971248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194731760"/>
+        <c:crossAx val="-83960912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194731760"/>
+        <c:axId val="-83960912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1418,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194738832"/>
+        <c:crossAx val="-83971248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1539,7 +1541,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1886,8 +1887,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194737200"/>
-        <c:axId val="194724144"/>
+        <c:axId val="-83973424"/>
+        <c:axId val="-83965264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2556,7 +2557,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194737200"/>
+        <c:axId val="-83973424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2589,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2655,7 +2655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194724144"/>
+        <c:crossAx val="-83965264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194724144"/>
+        <c:axId val="-83965264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2710,7 +2710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2777,7 +2776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194737200"/>
+        <c:crossAx val="-83973424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2791,7 +2790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2899,7 +2897,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3708,8 +3705,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194738288"/>
-        <c:axId val="194732848"/>
+        <c:axId val="-83970704"/>
+        <c:axId val="-83962544"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3816,7 +3813,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194738288"/>
+        <c:axId val="-83970704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +3845,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3915,7 +3911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194732848"/>
+        <c:crossAx val="-83962544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3923,7 +3919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194732848"/>
+        <c:axId val="-83962544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3970,7 +3966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4037,7 +4032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194738288"/>
+        <c:crossAx val="-83970704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4051,7 +4046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4159,7 +4153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5049,12 +5042,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194733392"/>
-        <c:axId val="194736112"/>
+        <c:axId val="-83971792"/>
+        <c:axId val="-83964176"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194733392"/>
+        <c:axId val="-83971792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,7 +5079,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5153,7 +5145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194736112"/>
+        <c:crossAx val="-83964176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5161,7 +5153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194736112"/>
+        <c:axId val="-83964176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5208,7 +5200,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5275,7 +5266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194733392"/>
+        <c:crossAx val="-83971792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5289,7 +5280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5397,7 +5387,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6030,8 +6019,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194727952"/>
-        <c:axId val="194737744"/>
+        <c:axId val="-83967440"/>
+        <c:axId val="-83966896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6362,7 +6351,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194727952"/>
+        <c:axId val="-83967440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,7 +6383,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6461,7 +6449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194737744"/>
+        <c:crossAx val="-83966896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6469,7 +6457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194737744"/>
+        <c:axId val="-83966896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6516,7 +6504,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6583,7 +6570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194727952"/>
+        <c:crossAx val="-83967440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6597,7 +6584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6705,7 +6691,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7514,8 +7499,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253953600"/>
-        <c:axId val="253949792"/>
+        <c:axId val="-26718944"/>
+        <c:axId val="-26716768"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7622,7 +7607,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253953600"/>
+        <c:axId val="-26718944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7654,7 +7639,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7721,7 +7705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253949792"/>
+        <c:crossAx val="-26716768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7729,7 +7713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253949792"/>
+        <c:axId val="-26716768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7776,7 +7760,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7843,7 +7826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253953600"/>
+        <c:crossAx val="-26718944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7857,7 +7840,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7965,7 +7947,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8855,12 +8836,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253939456"/>
-        <c:axId val="253951968"/>
+        <c:axId val="-26726560"/>
+        <c:axId val="-26722752"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253939456"/>
+        <c:axId val="-26726560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8892,7 +8873,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8959,7 +8939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253951968"/>
+        <c:crossAx val="-26722752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8967,7 +8947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253951968"/>
+        <c:axId val="-26722752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9014,7 +8994,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9081,7 +9060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253939456"/>
+        <c:crossAx val="-26726560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9095,7 +9074,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9203,7 +9181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10093,12 +10070,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253942176"/>
-        <c:axId val="253944352"/>
+        <c:axId val="-26720032"/>
+        <c:axId val="-26715136"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253942176"/>
+        <c:axId val="-26720032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10130,7 +10107,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10197,7 +10173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253944352"/>
+        <c:crossAx val="-26715136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10205,7 +10181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253944352"/>
+        <c:axId val="-26715136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10252,7 +10228,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10319,7 +10294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253942176"/>
+        <c:crossAx val="-26720032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10333,7 +10308,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15314,8 +15288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16056,6 +16030,792 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection sqref="A1:AQ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3:AQ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -528,8 +528,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-83971248"/>
-        <c:axId val="-83960912"/>
+        <c:axId val="-1527684608"/>
+        <c:axId val="-1527691136"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1201,7 +1201,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-83971248"/>
+        <c:axId val="-1527684608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83960912"/>
+        <c:crossAx val="-1527691136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-83960912"/>
+        <c:axId val="-1527691136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1420,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83971248"/>
+        <c:crossAx val="-1527684608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1887,8 +1887,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-83973424"/>
-        <c:axId val="-83965264"/>
+        <c:axId val="-1527691680"/>
+        <c:axId val="-1527696032"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2557,7 +2557,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-83973424"/>
+        <c:axId val="-1527691680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,7 +2655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83965264"/>
+        <c:crossAx val="-1527696032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-83965264"/>
+        <c:axId val="-1527696032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2776,7 +2776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83973424"/>
+        <c:crossAx val="-1527691680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,8 +3705,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-83970704"/>
-        <c:axId val="-83962544"/>
+        <c:axId val="-1527685152"/>
+        <c:axId val="-1527686784"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3813,7 +3813,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-83970704"/>
+        <c:axId val="-1527685152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83962544"/>
+        <c:crossAx val="-1527686784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3919,7 +3919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-83962544"/>
+        <c:axId val="-1527686784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4032,7 +4032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83970704"/>
+        <c:crossAx val="-1527685152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5042,12 +5042,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-83971792"/>
-        <c:axId val="-83964176"/>
+        <c:axId val="-1527683520"/>
+        <c:axId val="-1527688960"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-83971792"/>
+        <c:axId val="-1527683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83964176"/>
+        <c:crossAx val="-1527688960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5153,7 +5153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-83964176"/>
+        <c:axId val="-1527688960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5266,7 +5266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83971792"/>
+        <c:crossAx val="-1527683520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6019,8 +6019,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-83967440"/>
-        <c:axId val="-83966896"/>
+        <c:axId val="-1465130368"/>
+        <c:axId val="-1465129824"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6351,7 +6351,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-83967440"/>
+        <c:axId val="-1465130368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,7 +6449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83966896"/>
+        <c:crossAx val="-1465129824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6457,7 +6457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-83966896"/>
+        <c:axId val="-1465129824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6570,7 +6570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-83967440"/>
+        <c:crossAx val="-1465130368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7499,8 +7499,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-26718944"/>
-        <c:axId val="-26716768"/>
+        <c:axId val="-1465129280"/>
+        <c:axId val="-1465134720"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7607,7 +7607,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-26718944"/>
+        <c:axId val="-1465129280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7705,7 +7705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-26716768"/>
+        <c:crossAx val="-1465134720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7713,7 +7713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-26716768"/>
+        <c:axId val="-1465134720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7826,7 +7826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-26718944"/>
+        <c:crossAx val="-1465129280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8836,12 +8836,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-26726560"/>
-        <c:axId val="-26722752"/>
+        <c:axId val="-1465128192"/>
+        <c:axId val="-1465132544"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-26726560"/>
+        <c:axId val="-1465128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8939,7 +8939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-26722752"/>
+        <c:crossAx val="-1465132544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8947,7 +8947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-26722752"/>
+        <c:axId val="-1465132544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9060,7 +9060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-26726560"/>
+        <c:crossAx val="-1465128192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10070,12 +10070,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-26720032"/>
-        <c:axId val="-26715136"/>
+        <c:axId val="-1464176320"/>
+        <c:axId val="-1464175232"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-26720032"/>
+        <c:axId val="-1464176320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10173,7 +10173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-26715136"/>
+        <c:crossAx val="-1464175232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10181,7 +10181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-26715136"/>
+        <c:axId val="-1464175232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10294,7 +10294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-26720032"/>
+        <c:crossAx val="-1464176320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16168,7 +16168,9 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>45628</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16180,7 +16182,9 @@
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <v>45574</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -16192,7 +16196,9 @@
       <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="1"/>
+      <c r="X3" s="1">
+        <v>47052</v>
+      </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -16204,7 +16210,9 @@
       <c r="AH3" s="1">
         <v>3</v>
       </c>
-      <c r="AI3" s="2"/>
+      <c r="AI3" s="2">
+        <v>45672</v>
+      </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16218,7 +16226,9 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>45717</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -16230,7 +16240,9 @@
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>45726</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -16242,7 +16254,9 @@
       <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="1"/>
+      <c r="X4" s="1">
+        <v>45969</v>
+      </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -16254,7 +16268,9 @@
       <c r="AH4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2">
+        <v>45302</v>
+      </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -16268,7 +16284,9 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>47319</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -16280,7 +16298,9 @@
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>47017</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -16292,7 +16312,9 @@
       <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="1"/>
+      <c r="X5" s="1">
+        <v>46317</v>
+      </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -16304,7 +16326,9 @@
       <c r="AH5" s="1">
         <v>5</v>
       </c>
-      <c r="AI5" s="2"/>
+      <c r="AI5" s="2">
+        <v>46746</v>
+      </c>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -16318,7 +16342,9 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>45595</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -16330,7 +16356,9 @@
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>46958</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -16342,7 +16370,9 @@
       <c r="W6" s="1">
         <v>6</v>
       </c>
-      <c r="X6" s="1"/>
+      <c r="X6" s="1">
+        <v>45587</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -16354,7 +16384,9 @@
       <c r="AH6" s="1">
         <v>6</v>
       </c>
-      <c r="AI6" s="2"/>
+      <c r="AI6" s="2">
+        <v>45487</v>
+      </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -16368,7 +16400,9 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>45942</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -16380,7 +16414,9 @@
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>46326</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -16392,7 +16428,9 @@
       <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="X7" s="1"/>
+      <c r="X7" s="1">
+        <v>45596</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -16404,7 +16442,9 @@
       <c r="AH7" s="1">
         <v>7</v>
       </c>
-      <c r="AI7" s="2"/>
+      <c r="AI7" s="2">
+        <v>46189</v>
+      </c>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
@@ -177,6 +177,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -486,19 +487,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,8 +529,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1527684608"/>
-        <c:axId val="-1527691136"/>
+        <c:axId val="-16154400"/>
+        <c:axId val="-16153856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -625,19 +626,19 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>29349</c:v>
+                        <c:v>30075</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>27101</c:v>
+                        <c:v>27414</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>22042</c:v>
+                        <c:v>22702</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18408</c:v>
+                        <c:v>18854</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>16105</c:v>
+                        <c:v>16437</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1201,7 +1202,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1527684608"/>
+        <c:axId val="-16154400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,6 +1234,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1299,7 +1301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527691136"/>
+        <c:crossAx val="-16153856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1527691136"/>
+        <c:axId val="-16153856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1354,6 +1356,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1420,7 +1423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527684608"/>
+        <c:crossAx val="-16154400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,6 +1437,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1541,6 +1545,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1887,8 +1892,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1527691680"/>
-        <c:axId val="-1527696032"/>
+        <c:axId val="-16147872"/>
+        <c:axId val="-16147328"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2557,7 +2562,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1527691680"/>
+        <c:axId val="-16147872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,6 +2594,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2655,7 +2661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527696032"/>
+        <c:crossAx val="-16147328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1527696032"/>
+        <c:axId val="-16147328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2710,6 +2716,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2776,7 +2783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527691680"/>
+        <c:crossAx val="-16147872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2790,6 +2797,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3705,8 +3713,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1527685152"/>
-        <c:axId val="-1527686784"/>
+        <c:axId val="-16141344"/>
+        <c:axId val="-16146240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3813,7 +3821,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1527685152"/>
+        <c:axId val="-16141344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527686784"/>
+        <c:crossAx val="-16146240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3919,7 +3927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1527686784"/>
+        <c:axId val="-16146240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4032,7 +4040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527685152"/>
+        <c:crossAx val="-16141344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5042,12 +5050,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1527683520"/>
-        <c:axId val="-1527688960"/>
+        <c:axId val="-16145696"/>
+        <c:axId val="-16155488"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1527683520"/>
+        <c:axId val="-16145696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527688960"/>
+        <c:crossAx val="-16155488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5153,7 +5161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1527688960"/>
+        <c:axId val="-16155488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5266,7 +5274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527683520"/>
+        <c:crossAx val="-16145696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6019,8 +6027,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1465130368"/>
-        <c:axId val="-1465129824"/>
+        <c:axId val="-16142976"/>
+        <c:axId val="-16156576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6351,7 +6359,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1465130368"/>
+        <c:axId val="-16142976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,7 +6457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465129824"/>
+        <c:crossAx val="-16156576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6457,7 +6465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1465129824"/>
+        <c:axId val="-16156576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6570,7 +6578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465130368"/>
+        <c:crossAx val="-16142976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7499,8 +7507,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1465129280"/>
-        <c:axId val="-1465134720"/>
+        <c:axId val="-16156032"/>
+        <c:axId val="-16152224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7607,7 +7615,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1465129280"/>
+        <c:axId val="-16156032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7705,7 +7713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465134720"/>
+        <c:crossAx val="-16152224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7713,7 +7721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1465134720"/>
+        <c:axId val="-16152224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7826,7 +7834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465129280"/>
+        <c:crossAx val="-16156032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8836,12 +8844,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1465128192"/>
-        <c:axId val="-1465132544"/>
+        <c:axId val="-2077235168"/>
+        <c:axId val="-2077233536"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1465128192"/>
+        <c:axId val="-2077235168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8939,7 +8947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465132544"/>
+        <c:crossAx val="-2077233536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8947,7 +8955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1465132544"/>
+        <c:axId val="-2077233536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9060,7 +9068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465128192"/>
+        <c:crossAx val="-2077235168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10070,12 +10078,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1464176320"/>
-        <c:axId val="-1464175232"/>
+        <c:axId val="-2077224832"/>
+        <c:axId val="-2077234624"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1464176320"/>
+        <c:axId val="-2077224832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10173,7 +10181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1464175232"/>
+        <c:crossAx val="-2077234624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10181,7 +10189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1464175232"/>
+        <c:axId val="-2077234624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10294,7 +10302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1464176320"/>
+        <c:crossAx val="-2077224832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15286,10 +15294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:AQ7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15455,7 +15463,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>29349</v>
+        <v>30075</v>
       </c>
       <c r="C3" s="2">
         <v>24130</v>
@@ -15477,7 +15485,7 @@
         <v>14374</v>
       </c>
       <c r="J3" s="1">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -15569,7 +15577,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>27101</v>
+        <v>27414</v>
       </c>
       <c r="C4" s="2">
         <v>21209</v>
@@ -15591,7 +15599,7 @@
         <v>11538</v>
       </c>
       <c r="J4" s="1">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -15683,7 +15691,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>22042</v>
+        <v>22702</v>
       </c>
       <c r="C5" s="2">
         <v>14949</v>
@@ -15705,7 +15713,7 @@
         <v>7801</v>
       </c>
       <c r="J5" s="1">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -15797,7 +15805,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>18408</v>
+        <v>18854</v>
       </c>
       <c r="C6" s="2">
         <v>10826</v>
@@ -15819,7 +15827,7 @@
         <v>5494</v>
       </c>
       <c r="J6" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
@@ -15911,7 +15919,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>16105</v>
+        <v>16437</v>
       </c>
       <c r="C7" s="2">
         <v>8262</v>
@@ -15933,7 +15941,7 @@
         <v>4047</v>
       </c>
       <c r="J7" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
@@ -16018,6 +16026,31 @@
       </c>
       <c r="AQ7" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -16463,7 +16496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AI3" sqref="AI3:AQ7"/>
     </sheetView>
   </sheetViews>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -177,7 +177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -213,6 +212,103 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4538</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
@@ -293,19 +389,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23012</c:v>
+                  <c:v>21759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20220</c:v>
+                  <c:v>18961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17279</c:v>
+                  <c:v>16202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14679</c:v>
+                  <c:v>13891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13638</c:v>
+                  <c:v>12523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,8 +625,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16154400"/>
-        <c:axId val="-16153856"/>
+        <c:axId val="-922044528"/>
+        <c:axId val="-922059760"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -626,19 +722,19 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>30075</c:v>
+                        <c:v>28989</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>27414</c:v>
+                        <c:v>27225</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>22702</c:v>
+                        <c:v>23453</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18854</c:v>
+                        <c:v>24899</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>16437</c:v>
+                        <c:v>17991</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -740,19 +836,19 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>24130</c:v>
+                        <c:v>25724</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>21209</c:v>
+                        <c:v>21670</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>14949</c:v>
+                        <c:v>15838</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10826</c:v>
+                        <c:v>11345</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>8262</c:v>
+                        <c:v>9016</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -852,19 +948,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>620418</c:v>
+                        <c:v>646326</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>472621</c:v>
+                        <c:v>481407</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>314328</c:v>
+                        <c:v>316812</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>208425</c:v>
+                        <c:v>211744</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>148948</c:v>
+                        <c:v>153391</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -896,8 +992,9 @@
                 <c:spPr>
                   <a:ln w="22225" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="bg2">
-                        <a:lumMod val="90000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:prstDash val="sysDot"/>
@@ -964,133 +1061,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>610523</c:v>
+                        <c:v>582273</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>471898</c:v>
+                        <c:v>444984</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>310748</c:v>
+                        <c:v>291604</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>205170</c:v>
+                        <c:v>191859</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>145703</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$F$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>PT</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$F$3:$F$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10109</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8519</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6941</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5533</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4566</c:v>
+                        <c:v>136466</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1202,7 +1185,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16154400"/>
+        <c:axId val="-922044528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1217,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1301,7 +1283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16153856"/>
+        <c:crossAx val="-922059760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1309,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16153856"/>
+        <c:axId val="-922059760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1356,7 +1338,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1423,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16154400"/>
+        <c:crossAx val="-922044528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,7 +1418,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,6 +1562,566 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NT</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18149</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NTI</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8924</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NT-TA</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>602043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>461454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>301355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200820</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144337</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NTI-TA</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$P$3:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>556368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>424947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127929</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$Q$3:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4534</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>connect!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT-TA</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>connect!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>connect!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
@@ -1659,19 +2199,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23380</c:v>
+                  <c:v>21769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20904</c:v>
+                  <c:v>19320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17287</c:v>
+                  <c:v>16219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14626</c:v>
+                  <c:v>13606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13570</c:v>
+                  <c:v>12433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,677 +2432,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16147872"/>
-        <c:axId val="-16147328"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$M$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>NT</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="88500"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="triangle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:tint val="88500"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$L$3:$L$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$M$3:$M$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>29511</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>26746</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>22159</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>18378</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16361</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$N$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>NTI</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="55000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="square"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$L$3:$L$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$N$3:$N$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>24176</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>21086</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15265</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11422</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8364</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$O$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>NT-TA</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="triangle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="bg2">
-                          <a:lumMod val="90000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$L$3:$L$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$O$3:$O$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>587842</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>448965</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>294553</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>196123</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>140033</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$P$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>NTI-TA</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="98500"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="square"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="bg2">
-                          <a:lumMod val="90000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$L$3:$L$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$P$3:$P$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>589685</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>442945</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>291537</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>194906</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>137038</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$Q$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>PT</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="30000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:prstDash val="sysDot"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$L$3:$L$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$Q$3:$Q$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10101</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8375</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6944</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5618</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4734</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$R$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>PT-TA</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:tint val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:tint val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$L$3:$L$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$R$3:$R$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-922054864"/>
+        <c:axId val="-922054320"/>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16147872"/>
+        <c:axId val="-922054864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16147328"/>
+        <c:crossAx val="-922054320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16147328"/>
+        <c:axId val="-922054320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2746,7 +2621,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2783,7 +2658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16147872"/>
+        <c:crossAx val="-922054864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2905,6 +2780,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3013,19 +2889,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29550</c:v>
+                  <c:v>38515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26741</c:v>
+                  <c:v>33693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22828</c:v>
+                  <c:v>28703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18552</c:v>
+                  <c:v>23853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16080</c:v>
+                  <c:v>19808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,19 +2982,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23080</c:v>
+                  <c:v>26107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21591</c:v>
+                  <c:v>21857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15554</c:v>
+                  <c:v>15855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11241</c:v>
+                  <c:v>11402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8421</c:v>
+                  <c:v>9192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3198,19 +3074,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>601974</c:v>
+                  <c:v>594190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>454042</c:v>
+                  <c:v>465032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>301027</c:v>
+                  <c:v>311249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204402</c:v>
+                  <c:v>208183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146978</c:v>
+                  <c:v>151146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,19 +3166,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>587045</c:v>
+                  <c:v>552327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>461745</c:v>
+                  <c:v>432462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306163</c:v>
+                  <c:v>285966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207667</c:v>
+                  <c:v>192190</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147148</c:v>
+                  <c:v>136754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,19 +3259,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10274</c:v>
+                  <c:v>9954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8533</c:v>
+                  <c:v>8246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6894</c:v>
+                  <c:v>6623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5760</c:v>
+                  <c:v>5360</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4691</c:v>
+                  <c:v>4477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,19 +3356,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23016</c:v>
+                  <c:v>21751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20791</c:v>
+                  <c:v>19162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17056</c:v>
+                  <c:v>16180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14508</c:v>
+                  <c:v>13614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13376</c:v>
+                  <c:v>12932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,8 +3589,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16141344"/>
-        <c:axId val="-16146240"/>
+        <c:axId val="-922049424"/>
+        <c:axId val="-922052144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3821,7 +3697,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16141344"/>
+        <c:axId val="-922049424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,6 +3729,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3919,7 +3796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16146240"/>
+        <c:crossAx val="-922052144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3927,7 +3804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16146240"/>
+        <c:axId val="-922052144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3974,6 +3851,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4040,7 +3918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16141344"/>
+        <c:crossAx val="-922049424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4054,6 +3932,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4161,6 +4040,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4269,19 +4149,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29459</c:v>
+                  <c:v>36403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29734</c:v>
+                  <c:v>29683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24710</c:v>
+                  <c:v>23465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20045</c:v>
+                  <c:v>19492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18513</c:v>
+                  <c:v>17020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,19 +4242,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25034</c:v>
+                  <c:v>25812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21594</c:v>
+                  <c:v>21902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15638</c:v>
+                  <c:v>15663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11265</c:v>
+                  <c:v>11331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8584</c:v>
+                  <c:v>8735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,19 +4334,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>588063</c:v>
+                  <c:v>595284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>473293</c:v>
+                  <c:v>478284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>321897</c:v>
+                  <c:v>325448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220655</c:v>
+                  <c:v>222843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159740</c:v>
+                  <c:v>162504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,19 +4426,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>607632</c:v>
+                  <c:v>556367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>493593</c:v>
+                  <c:v>449138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>332906</c:v>
+                  <c:v>305456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228856</c:v>
+                  <c:v>207824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165662</c:v>
+                  <c:v>150501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4639,19 +4519,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10437</c:v>
+                  <c:v>9864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8723</c:v>
+                  <c:v>8344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7085</c:v>
+                  <c:v>6720</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5687</c:v>
+                  <c:v>5452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4867</c:v>
+                  <c:v>4556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4817,19 +4697,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23202</c:v>
+                  <c:v>24851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20513</c:v>
+                  <c:v>19124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16810</c:v>
+                  <c:v>15926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14318</c:v>
+                  <c:v>13554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13241</c:v>
+                  <c:v>12444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5050,12 +4930,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16145696"/>
-        <c:axId val="-16155488"/>
+        <c:axId val="-922056496"/>
+        <c:axId val="-922057040"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16145696"/>
+        <c:axId val="-922056496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,6 +4967,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5153,7 +5034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16155488"/>
+        <c:crossAx val="-922057040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5161,7 +5042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16155488"/>
+        <c:axId val="-922057040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5208,6 +5089,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5274,7 +5156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16145696"/>
+        <c:crossAx val="-922056496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5288,6 +5170,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6027,8 +5910,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16142976"/>
-        <c:axId val="-16156576"/>
+        <c:axId val="-922055408"/>
+        <c:axId val="-855310816"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6359,7 +6242,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16142976"/>
+        <c:axId val="-922055408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +6340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16156576"/>
+        <c:crossAx val="-855310816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6465,7 +6348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16156576"/>
+        <c:axId val="-855310816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6578,7 +6461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16142976"/>
+        <c:crossAx val="-922055408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7507,8 +7390,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16156032"/>
-        <c:axId val="-16152224"/>
+        <c:axId val="-855308096"/>
+        <c:axId val="-855302656"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7615,7 +7498,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16156032"/>
+        <c:axId val="-855308096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,7 +7596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16152224"/>
+        <c:crossAx val="-855302656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7721,7 +7604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16152224"/>
+        <c:axId val="-855302656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7834,7 +7717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16156032"/>
+        <c:crossAx val="-855308096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8844,12 +8727,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077235168"/>
-        <c:axId val="-2077233536"/>
+        <c:axId val="-855315168"/>
+        <c:axId val="-855301568"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077235168"/>
+        <c:axId val="-855315168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8947,7 +8830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077233536"/>
+        <c:crossAx val="-855301568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8955,7 +8838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077233536"/>
+        <c:axId val="-855301568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9068,7 +8951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077235168"/>
+        <c:crossAx val="-855315168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10078,12 +9961,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077224832"/>
-        <c:axId val="-2077234624"/>
+        <c:axId val="-855304832"/>
+        <c:axId val="-855316800"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077224832"/>
+        <c:axId val="-855304832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10181,7 +10064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077234624"/>
+        <c:crossAx val="-855316800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10189,7 +10072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077234624"/>
+        <c:axId val="-855316800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10302,7 +10185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077224832"/>
+        <c:crossAx val="-855304832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15296,8 +15179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15463,23 +15346,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>30075</v>
+        <v>28989</v>
       </c>
       <c r="C3" s="2">
-        <v>24130</v>
+        <v>25724</v>
       </c>
       <c r="D3" s="1">
-        <v>620418</v>
+        <v>646326</v>
       </c>
       <c r="E3" s="1">
-        <v>610523</v>
+        <v>582273</v>
       </c>
       <c r="F3" s="1">
         <v>10109</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>23012</v>
+        <v>21759</v>
       </c>
       <c r="I3" s="1">
         <v>14374</v>
@@ -15491,23 +15374,23 @@
         <v>3</v>
       </c>
       <c r="M3" s="2">
-        <v>29511</v>
+        <v>33583</v>
       </c>
       <c r="N3" s="2">
-        <v>24176</v>
+        <v>26036</v>
       </c>
       <c r="O3" s="1">
-        <v>587842</v>
+        <v>602043</v>
       </c>
       <c r="P3" s="1">
-        <v>589685</v>
+        <v>556368</v>
       </c>
       <c r="Q3" s="1">
-        <v>10101</v>
+        <v>9941</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>23380</v>
+        <v>21769</v>
       </c>
       <c r="T3" s="1">
         <v>14602</v>
@@ -15519,23 +15402,23 @@
         <v>3</v>
       </c>
       <c r="X3" s="1">
-        <v>29550</v>
+        <v>38515</v>
       </c>
       <c r="Y3" s="2">
-        <v>23080</v>
+        <v>26107</v>
       </c>
       <c r="Z3" s="1">
-        <v>601974</v>
+        <v>594190</v>
       </c>
       <c r="AA3" s="1">
-        <v>587045</v>
+        <v>552327</v>
       </c>
       <c r="AB3" s="1">
-        <v>10274</v>
+        <v>9954</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1">
-        <v>23016</v>
+        <v>21751</v>
       </c>
       <c r="AE3" s="1">
         <v>14524</v>
@@ -15547,23 +15430,23 @@
         <v>3</v>
       </c>
       <c r="AI3" s="2">
-        <v>29459</v>
+        <v>36403</v>
       </c>
       <c r="AJ3" s="2">
-        <v>25034</v>
+        <v>25812</v>
       </c>
       <c r="AK3" s="1">
-        <v>588063</v>
+        <v>595284</v>
       </c>
       <c r="AL3" s="1">
-        <v>607632</v>
+        <v>556367</v>
       </c>
       <c r="AM3" s="1">
-        <v>10437</v>
+        <v>9864</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1">
-        <v>23202</v>
+        <v>24851</v>
       </c>
       <c r="AP3" s="1">
         <v>14568</v>
@@ -15577,23 +15460,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>27414</v>
+        <v>27225</v>
       </c>
       <c r="C4" s="2">
-        <v>21209</v>
+        <v>21670</v>
       </c>
       <c r="D4" s="1">
-        <v>472621</v>
+        <v>481407</v>
       </c>
       <c r="E4" s="1">
-        <v>471898</v>
+        <v>444984</v>
       </c>
       <c r="F4" s="1">
-        <v>8519</v>
+        <v>8465</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>20220</v>
+        <v>18961</v>
       </c>
       <c r="I4" s="1">
         <v>11538</v>
@@ -15605,23 +15488,23 @@
         <v>4</v>
       </c>
       <c r="M4" s="2">
-        <v>26746</v>
+        <v>30134</v>
       </c>
       <c r="N4" s="2">
-        <v>21086</v>
+        <v>22072</v>
       </c>
       <c r="O4" s="1">
-        <v>448965</v>
+        <v>461454</v>
       </c>
       <c r="P4" s="1">
-        <v>442945</v>
+        <v>424947</v>
       </c>
       <c r="Q4" s="1">
-        <v>8375</v>
+        <v>8289</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>20904</v>
+        <v>19320</v>
       </c>
       <c r="T4" s="1">
         <v>11623</v>
@@ -15633,23 +15516,23 @@
         <v>4</v>
       </c>
       <c r="X4" s="1">
-        <v>26741</v>
+        <v>33693</v>
       </c>
       <c r="Y4" s="2">
-        <v>21591</v>
+        <v>21857</v>
       </c>
       <c r="Z4" s="1">
-        <v>454042</v>
+        <v>465032</v>
       </c>
       <c r="AA4" s="1">
-        <v>461745</v>
+        <v>432462</v>
       </c>
       <c r="AB4" s="1">
-        <v>8533</v>
+        <v>8246</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1">
-        <v>20791</v>
+        <v>19162</v>
       </c>
       <c r="AE4" s="1">
         <v>11425</v>
@@ -15661,23 +15544,23 @@
         <v>4</v>
       </c>
       <c r="AI4" s="2">
-        <v>29734</v>
+        <v>29683</v>
       </c>
       <c r="AJ4" s="2">
-        <v>21594</v>
+        <v>21902</v>
       </c>
       <c r="AK4" s="1">
-        <v>473293</v>
+        <v>478284</v>
       </c>
       <c r="AL4" s="1">
-        <v>493593</v>
+        <v>449138</v>
       </c>
       <c r="AM4" s="1">
-        <v>8723</v>
+        <v>8344</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1">
-        <v>20513</v>
+        <v>19124</v>
       </c>
       <c r="AP4" s="1">
         <v>11606</v>
@@ -15691,23 +15574,23 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>22702</v>
+        <v>23453</v>
       </c>
       <c r="C5" s="2">
-        <v>14949</v>
+        <v>15838</v>
       </c>
       <c r="D5" s="1">
-        <v>314328</v>
+        <v>316812</v>
       </c>
       <c r="E5" s="1">
-        <v>310748</v>
+        <v>291604</v>
       </c>
       <c r="F5" s="1">
-        <v>6941</v>
+        <v>6668</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>17279</v>
+        <v>16202</v>
       </c>
       <c r="I5" s="1">
         <v>7801</v>
@@ -15719,23 +15602,23 @@
         <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>22159</v>
+        <v>27019</v>
       </c>
       <c r="N5" s="2">
-        <v>15265</v>
+        <v>15968</v>
       </c>
       <c r="O5" s="1">
-        <v>294553</v>
+        <v>301355</v>
       </c>
       <c r="P5" s="1">
-        <v>291537</v>
+        <v>277388</v>
       </c>
       <c r="Q5" s="1">
-        <v>6944</v>
+        <v>6674</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>17287</v>
+        <v>16219</v>
       </c>
       <c r="T5" s="1">
         <v>8052</v>
@@ -15747,23 +15630,23 @@
         <v>5</v>
       </c>
       <c r="X5" s="1">
-        <v>22828</v>
+        <v>28703</v>
       </c>
       <c r="Y5" s="2">
-        <v>15554</v>
+        <v>15855</v>
       </c>
       <c r="Z5" s="1">
-        <v>301027</v>
+        <v>311249</v>
       </c>
       <c r="AA5" s="1">
-        <v>306163</v>
+        <v>285966</v>
       </c>
       <c r="AB5" s="1">
-        <v>6894</v>
+        <v>6623</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1">
-        <v>17056</v>
+        <v>16180</v>
       </c>
       <c r="AE5" s="1">
         <v>8000</v>
@@ -15775,23 +15658,23 @@
         <v>5</v>
       </c>
       <c r="AI5" s="2">
-        <v>24710</v>
+        <v>23465</v>
       </c>
       <c r="AJ5" s="2">
-        <v>15638</v>
+        <v>15663</v>
       </c>
       <c r="AK5" s="1">
-        <v>321897</v>
+        <v>325448</v>
       </c>
       <c r="AL5" s="1">
-        <v>332906</v>
+        <v>305456</v>
       </c>
       <c r="AM5" s="1">
-        <v>7085</v>
+        <v>6720</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1">
-        <v>16810</v>
+        <v>15926</v>
       </c>
       <c r="AP5" s="1">
         <v>8156</v>
@@ -15805,23 +15688,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>18854</v>
+        <v>24899</v>
       </c>
       <c r="C6" s="2">
-        <v>10826</v>
+        <v>11345</v>
       </c>
       <c r="D6" s="1">
-        <v>208425</v>
+        <v>211744</v>
       </c>
       <c r="E6" s="1">
-        <v>205170</v>
+        <v>191859</v>
       </c>
       <c r="F6" s="1">
-        <v>5533</v>
+        <v>5496</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>14679</v>
+        <v>13891</v>
       </c>
       <c r="I6" s="1">
         <v>5494</v>
@@ -15833,23 +15716,23 @@
         <v>6</v>
       </c>
       <c r="M6" s="2">
-        <v>18378</v>
+        <v>20832</v>
       </c>
       <c r="N6" s="2">
-        <v>11422</v>
+        <v>11747</v>
       </c>
       <c r="O6" s="1">
-        <v>196123</v>
+        <v>200820</v>
       </c>
       <c r="P6" s="1">
-        <v>194906</v>
+        <v>182271</v>
       </c>
       <c r="Q6" s="1">
-        <v>5618</v>
+        <v>5351</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>14626</v>
+        <v>13606</v>
       </c>
       <c r="T6" s="1">
         <v>5748</v>
@@ -15861,23 +15744,23 @@
         <v>6</v>
       </c>
       <c r="X6" s="1">
-        <v>18552</v>
+        <v>23853</v>
       </c>
       <c r="Y6" s="2">
-        <v>11241</v>
+        <v>11402</v>
       </c>
       <c r="Z6" s="1">
-        <v>204402</v>
+        <v>208183</v>
       </c>
       <c r="AA6" s="1">
-        <v>207667</v>
+        <v>192190</v>
       </c>
       <c r="AB6" s="1">
-        <v>5760</v>
+        <v>5360</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <v>14508</v>
+        <v>13614</v>
       </c>
       <c r="AE6" s="1">
         <v>5550</v>
@@ -15889,23 +15772,23 @@
         <v>6</v>
       </c>
       <c r="AI6" s="2">
-        <v>20045</v>
+        <v>19492</v>
       </c>
       <c r="AJ6" s="2">
-        <v>11265</v>
+        <v>11331</v>
       </c>
       <c r="AK6" s="1">
-        <v>220655</v>
+        <v>222843</v>
       </c>
       <c r="AL6" s="1">
-        <v>228856</v>
+        <v>207824</v>
       </c>
       <c r="AM6" s="1">
-        <v>5687</v>
+        <v>5452</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1">
-        <v>14318</v>
+        <v>13554</v>
       </c>
       <c r="AP6" s="1">
         <v>5773</v>
@@ -15919,23 +15802,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>16437</v>
+        <v>17991</v>
       </c>
       <c r="C7" s="2">
-        <v>8262</v>
+        <v>9016</v>
       </c>
       <c r="D7" s="1">
-        <v>148948</v>
+        <v>153391</v>
       </c>
       <c r="E7" s="1">
-        <v>145703</v>
+        <v>136466</v>
       </c>
       <c r="F7" s="1">
-        <v>4566</v>
+        <v>4538</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>13638</v>
+        <v>12523</v>
       </c>
       <c r="I7" s="1">
         <v>4047</v>
@@ -15947,23 +15830,23 @@
         <v>7</v>
       </c>
       <c r="M7" s="2">
-        <v>16361</v>
+        <v>18149</v>
       </c>
       <c r="N7" s="2">
-        <v>8364</v>
+        <v>8924</v>
       </c>
       <c r="O7" s="1">
-        <v>140033</v>
+        <v>144337</v>
       </c>
       <c r="P7" s="1">
-        <v>137038</v>
+        <v>127929</v>
       </c>
       <c r="Q7" s="1">
-        <v>4734</v>
+        <v>4534</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>13570</v>
+        <v>12433</v>
       </c>
       <c r="T7" s="1">
         <v>4148</v>
@@ -15975,23 +15858,23 @@
         <v>7</v>
       </c>
       <c r="X7" s="1">
-        <v>16080</v>
+        <v>19808</v>
       </c>
       <c r="Y7" s="2">
-        <v>8421</v>
+        <v>9192</v>
       </c>
       <c r="Z7" s="1">
-        <v>146978</v>
+        <v>151146</v>
       </c>
       <c r="AA7" s="1">
-        <v>147148</v>
+        <v>136754</v>
       </c>
       <c r="AB7" s="1">
-        <v>4691</v>
+        <v>4477</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1">
-        <v>13376</v>
+        <v>12932</v>
       </c>
       <c r="AE7" s="1">
         <v>3968</v>
@@ -16003,23 +15886,23 @@
         <v>7</v>
       </c>
       <c r="AI7" s="2">
-        <v>18513</v>
+        <v>17020</v>
       </c>
       <c r="AJ7" s="2">
-        <v>8584</v>
+        <v>8735</v>
       </c>
       <c r="AK7" s="1">
-        <v>159740</v>
+        <v>162504</v>
       </c>
       <c r="AL7" s="1">
-        <v>165662</v>
+        <v>150501</v>
       </c>
       <c r="AM7" s="1">
-        <v>4867</v>
+        <v>4556</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1">
-        <v>13241</v>
+        <v>12444</v>
       </c>
       <c r="AP7" s="1">
         <v>3920</v>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -1094,12 +1094,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1052150592"/>
-        <c:axId val="-1052155488"/>
+        <c:axId val="-1946498512"/>
+        <c:axId val="-1946509936"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1052150592"/>
+        <c:axId val="-1946498512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052155488"/>
+        <c:crossAx val="-1946509936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1205,7 +1205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052155488"/>
+        <c:axId val="-1946509936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1318,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052150592"/>
+        <c:crossAx val="-1946498512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,12 +2328,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-863085904"/>
-        <c:axId val="-863081552"/>
+        <c:axId val="-1866867360"/>
+        <c:axId val="-1866869536"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-863085904"/>
+        <c:axId val="-1866867360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863081552"/>
+        <c:crossAx val="-1866869536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-863081552"/>
+        <c:axId val="-1866869536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2552,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863085904"/>
+        <c:crossAx val="-1866867360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,12 +3562,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-863081008"/>
-        <c:axId val="-863092976"/>
+        <c:axId val="-1866855392"/>
+        <c:axId val="-1828930592"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-863081008"/>
+        <c:axId val="-1866855392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863092976"/>
+        <c:crossAx val="-1828930592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-863092976"/>
+        <c:axId val="-1828930592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3786,7 +3786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863081008"/>
+        <c:crossAx val="-1866855392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,12 +4813,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1052164736"/>
-        <c:axId val="-1052163648"/>
+        <c:axId val="-1946496880"/>
+        <c:axId val="-1946508848"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1052164736"/>
+        <c:axId val="-1946496880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,7 +4916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052163648"/>
+        <c:crossAx val="-1946508848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4924,7 +4924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052163648"/>
+        <c:axId val="-1946508848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5037,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052164736"/>
+        <c:crossAx val="-1946496880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5966,8 +5966,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1052434544"/>
-        <c:axId val="-1052429104"/>
+        <c:axId val="-1946512112"/>
+        <c:axId val="-1946511568"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6074,7 +6074,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1052434544"/>
+        <c:axId val="-1946512112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052429104"/>
+        <c:crossAx val="-1946511568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6180,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052429104"/>
+        <c:axId val="-1946511568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6293,7 +6293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052434544"/>
+        <c:crossAx val="-1946512112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7303,12 +7303,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-864611280"/>
-        <c:axId val="-864612368"/>
+        <c:axId val="-1946503408"/>
+        <c:axId val="-1946511024"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-864611280"/>
+        <c:axId val="-1946503408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864612368"/>
+        <c:crossAx val="-1946511024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7414,7 +7414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864612368"/>
+        <c:axId val="-1946511024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7527,7 +7527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864611280"/>
+        <c:crossAx val="-1946503408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8467,12 +8467,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-864619984"/>
-        <c:axId val="-864612912"/>
+        <c:axId val="-1866866816"/>
+        <c:axId val="-1866861376"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-864619984"/>
+        <c:axId val="-1866866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,7 +8570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864612912"/>
+        <c:crossAx val="-1866861376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8578,7 +8578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864612912"/>
+        <c:axId val="-1866861376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8691,7 +8691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864619984"/>
+        <c:crossAx val="-1866866816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8849,84 +8849,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kosarak!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>kosarak!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>kosarak!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -9001,163 +8923,20 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1048</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kosarak!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NT-TA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="90000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>kosarak!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>kosarak!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kosarak!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NTI-TA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="90000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>kosarak!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>kosarak!$E$3:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9185,7 +8964,7 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9237,86 +9016,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kosarak!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PT-TA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>kosarak!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:pt idx="0">
+                  <c:v>1367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>kosarak!$G$3:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>426</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9482,6 +9196,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9566,7 +9295,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>255</c:v>
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9596,12 +9337,423 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-864618352"/>
-        <c:axId val="-864615632"/>
-        <c:extLst/>
+        <c:axId val="-1866860288"/>
+        <c:axId val="-1866859744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NT</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="88500"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$B$3:$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>21911</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21397</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21397</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21124</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20880</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NT-TA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="90000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="90000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$D$3:$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NTI-TA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="90000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$E$3:$E$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PT-TA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>kosarak!$G$3:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-864618352"/>
+        <c:axId val="-1866860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9628,7 +9780,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Query Length</a:t>
+                  <a:t>QUERY LEN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9700,7 +9852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864615632"/>
+        <c:crossAx val="-1866859744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9708,7 +9860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864615632"/>
+        <c:axId val="-1866859744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9822,7 +9974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864618352"/>
+        <c:crossAx val="-1866860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10763,12 +10915,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-864615088"/>
-        <c:axId val="-864610736"/>
+        <c:axId val="-1866862464"/>
+        <c:axId val="-1866861920"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-864615088"/>
+        <c:axId val="-1866862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10866,7 +11018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864610736"/>
+        <c:crossAx val="-1866861920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10874,7 +11026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864610736"/>
+        <c:axId val="-1866861920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10987,7 +11139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864615088"/>
+        <c:crossAx val="-1866862464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11740,8 +11892,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-864614544"/>
-        <c:axId val="-864613456"/>
+        <c:axId val="-1866865728"/>
+        <c:axId val="-1866857568"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12072,7 +12224,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-864614544"/>
+        <c:axId val="-1866865728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12170,7 +12322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864613456"/>
+        <c:crossAx val="-1866857568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12178,7 +12330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864613456"/>
+        <c:axId val="-1866857568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12291,7 +12443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864614544"/>
+        <c:crossAx val="-1866865728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13220,8 +13372,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-864624336"/>
-        <c:axId val="-864622704"/>
+        <c:axId val="-1866856480"/>
+        <c:axId val="-1866864096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13328,7 +13480,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-864624336"/>
+        <c:axId val="-1866856480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13426,7 +13578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864622704"/>
+        <c:crossAx val="-1866864096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13434,7 +13586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-864622704"/>
+        <c:axId val="-1866864096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13547,7 +13699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864624336"/>
+        <c:crossAx val="-1866856480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19834,8 +19986,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -21528,7 +21680,7 @@
   <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21665,255 +21817,451 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>21911</v>
+      </c>
       <c r="C3" s="2">
-        <v>1048</v>
+        <v>903</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>1367</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>3917</v>
+      </c>
       <c r="J3" s="1">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>21965</v>
+      </c>
+      <c r="N3" s="2">
+        <v>679</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>1269</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="T3" s="1">
+        <v>3990</v>
+      </c>
+      <c r="U3" s="1">
+        <v>190</v>
+      </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="1">
+        <v>22123</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>678</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="1">
+        <v>1282</v>
+      </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AE3" s="1">
+        <v>3822</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>205</v>
+      </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AI3" s="2">
+        <v>22057</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>706</v>
+      </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="1">
+        <v>1370</v>
+      </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
+      <c r="AP3" s="1">
+        <v>4351</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>226</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>21397</v>
+      </c>
+      <c r="C4" s="2">
+        <v>307</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>660</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <v>449</v>
+      </c>
+      <c r="J4" s="1">
+        <v>102</v>
+      </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>21263</v>
+      </c>
+      <c r="N4" s="2">
+        <v>286</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>711</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="T4" s="1">
+        <v>408</v>
+      </c>
+      <c r="U4" s="1">
+        <v>112</v>
+      </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="2"/>
+      <c r="X4" s="1">
+        <v>21325</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>262</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="1">
+        <v>736</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AE4" s="1">
+        <v>398</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>65</v>
+      </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AI4" s="2">
+        <v>21629</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>273</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AM4" s="1">
+        <v>702</v>
+      </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
+      <c r="AP4" s="1">
+        <v>427</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>21397</v>
+      </c>
+      <c r="C5" s="2">
+        <v>234</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>514</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1">
+        <v>279</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2">
+        <v>21451</v>
+      </c>
+      <c r="N5" s="2">
+        <v>182</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>537</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="T5" s="1">
+        <v>304</v>
+      </c>
+      <c r="U5" s="1">
+        <v>110</v>
+      </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="2"/>
+      <c r="X5" s="1">
+        <v>21246</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>160</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1">
+        <v>530</v>
+      </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AE5" s="1">
+        <v>259</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>70</v>
+      </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AI5" s="2">
+        <v>21279</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>181</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="1">
+        <v>577</v>
+      </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
+      <c r="AP5" s="1">
+        <v>288</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>21124</v>
+      </c>
+      <c r="C6" s="2">
+        <v>436</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>514</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1">
+        <v>361</v>
+      </c>
+      <c r="J6" s="1">
+        <v>58</v>
+      </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>21234</v>
+      </c>
+      <c r="N6" s="2">
+        <v>189</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>482</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="T6" s="1">
+        <v>387</v>
+      </c>
+      <c r="U6" s="1">
+        <v>61</v>
+      </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="1">
+        <v>21093</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>158</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="AB6" s="1">
+        <v>493</v>
+      </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AE6" s="1">
+        <v>386</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>66</v>
+      </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AI6" s="2">
+        <v>21587</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>178</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="1">
+        <v>520</v>
+      </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="AP6" s="1">
+        <v>381</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>20880</v>
+      </c>
+      <c r="C7" s="2">
+        <v>158</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>426</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <v>110</v>
+      </c>
+      <c r="J7" s="1">
+        <v>54</v>
+      </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2">
+        <v>21035</v>
+      </c>
+      <c r="N7" s="2">
+        <v>104</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>415</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="T7" s="1">
+        <v>98</v>
+      </c>
+      <c r="U7" s="1">
+        <v>80</v>
+      </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="1">
+        <v>21570</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>129</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1">
+        <v>466</v>
+      </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AE7" s="1">
+        <v>106</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>83</v>
+      </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AI7" s="2">
+        <v>20975</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>106</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AM7" s="1">
+        <v>428</v>
+      </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AP7" s="1">
+        <v>108</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
@@ -1094,12 +1094,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1946498512"/>
-        <c:axId val="-1946509936"/>
+        <c:axId val="1228906512"/>
+        <c:axId val="1228905968"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1946498512"/>
+        <c:axId val="1228906512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946509936"/>
+        <c:crossAx val="1228905968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1205,7 +1205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1946509936"/>
+        <c:axId val="1228905968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1318,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946498512"/>
+        <c:crossAx val="1228906512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,12 +2328,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866867360"/>
-        <c:axId val="-1866869536"/>
+        <c:axId val="1285533376"/>
+        <c:axId val="1285523584"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866867360"/>
+        <c:axId val="1285533376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866869536"/>
+        <c:crossAx val="1285523584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1866869536"/>
+        <c:axId val="1285523584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2552,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866867360"/>
+        <c:crossAx val="1285533376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,12 +3562,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866855392"/>
-        <c:axId val="-1828930592"/>
+        <c:axId val="1285531744"/>
+        <c:axId val="1285521952"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866855392"/>
+        <c:axId val="1285531744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1828930592"/>
+        <c:crossAx val="1285521952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1828930592"/>
+        <c:axId val="1285521952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3786,7 +3786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866855392"/>
+        <c:crossAx val="1285531744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,12 +4813,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1946496880"/>
-        <c:axId val="-1946508848"/>
+        <c:axId val="1228903792"/>
+        <c:axId val="1228899984"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1946496880"/>
+        <c:axId val="1228903792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,7 +4916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946508848"/>
+        <c:crossAx val="1228899984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4924,7 +4924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1946508848"/>
+        <c:axId val="1228899984"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5037,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946496880"/>
+        <c:crossAx val="1228903792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5966,8 +5966,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1946512112"/>
-        <c:axId val="-1946511568"/>
+        <c:axId val="1228901072"/>
+        <c:axId val="1228904336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6074,7 +6074,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1946512112"/>
+        <c:axId val="1228901072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946511568"/>
+        <c:crossAx val="1228904336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6180,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1946511568"/>
+        <c:axId val="1228904336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6293,7 +6293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946512112"/>
+        <c:crossAx val="1228901072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7303,12 +7303,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1946503408"/>
-        <c:axId val="-1946511024"/>
+        <c:axId val="1228902704"/>
+        <c:axId val="1228909776"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1946503408"/>
+        <c:axId val="1228902704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946511024"/>
+        <c:crossAx val="1228909776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7414,7 +7414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1946511024"/>
+        <c:axId val="1228909776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7527,7 +7527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946503408"/>
+        <c:crossAx val="1228902704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7648,6 +7648,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7757,19 +7758,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>122520</c:v>
+                  <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41320</c:v>
+                  <c:v>42587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40612</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40660</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40908</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7852,167 +7853,21 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>syn_data1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NT-TA</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="90000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>syn_data1!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:pt idx="0">
+                  <c:v>1543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>syn_data1!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>syn_data1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NTI-TA</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="90000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>syn_data1!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>syn_data1!$E$3:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -8095,89 +7950,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>syn_data1!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PT-TA</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>syn_data1!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:pt idx="0">
+                  <c:v>21723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>17493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>14047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>syn_data1!$G$3:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>11897</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -8265,6 +8052,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51526</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -8349,6 +8151,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -8436,7 +8253,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2548</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -8467,12 +8296,310 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866866816"/>
-        <c:axId val="-1866861376"/>
-        <c:extLst/>
+        <c:axId val="1228911408"/>
+        <c:axId val="1228911952"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NT-TA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="90000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="90000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$D$3:$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NTI-TA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="90000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$E$3:$E$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PT-TA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>syn_data1!$G$3:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866866816"/>
+        <c:axId val="1228911408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8504,6 +8631,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8570,7 +8698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866861376"/>
+        <c:crossAx val="1228911952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8578,7 +8706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1866861376"/>
+        <c:axId val="1228911952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8625,6 +8753,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8691,7 +8820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866866816"/>
+        <c:crossAx val="1228911408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8705,6 +8834,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8812,7 +8942,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9337,8 +9466,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866860288"/>
-        <c:axId val="-1866859744"/>
+        <c:axId val="1285519232"/>
+        <c:axId val="1285528480"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9753,7 +9882,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866860288"/>
+        <c:axId val="1285519232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9785,7 +9914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9852,7 +9980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866859744"/>
+        <c:crossAx val="1285528480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9860,7 +9988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1866859744"/>
+        <c:axId val="1285528480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9907,7 +10035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9974,7 +10101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866860288"/>
+        <c:crossAx val="1285519232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9988,7 +10115,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10205,19 +10331,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>122520</c:v>
+                  <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41320</c:v>
+                  <c:v>42587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40612</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40660</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40908</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10300,6 +10426,21 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -10543,6 +10684,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11897</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -10713,6 +10869,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51526</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -10797,6 +10968,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -10884,7 +11070,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2548</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -10915,12 +11113,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866862464"/>
-        <c:axId val="-1866861920"/>
+        <c:axId val="1285525216"/>
+        <c:axId val="1285524128"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866862464"/>
+        <c:axId val="1285525216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11018,7 +11216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866861920"/>
+        <c:crossAx val="1285524128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11026,7 +11224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1866861920"/>
+        <c:axId val="1285524128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11139,7 +11337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866862464"/>
+        <c:crossAx val="1285525216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11892,8 +12090,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866865728"/>
-        <c:axId val="-1866857568"/>
+        <c:axId val="1285526848"/>
+        <c:axId val="1285527392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12224,7 +12422,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866865728"/>
+        <c:axId val="1285526848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12322,7 +12520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866857568"/>
+        <c:crossAx val="1285527392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12330,7 +12528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1866857568"/>
+        <c:axId val="1285527392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12443,7 +12641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866865728"/>
+        <c:crossAx val="1285526848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13372,8 +13570,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1866856480"/>
-        <c:axId val="-1866864096"/>
+        <c:axId val="1285532288"/>
+        <c:axId val="1285532832"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13480,7 +13678,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1866856480"/>
+        <c:axId val="1285532288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13578,7 +13776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866864096"/>
+        <c:crossAx val="1285532832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13586,7 +13784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1866864096"/>
+        <c:axId val="1285532832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13699,7 +13897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1866856480"/>
+        <c:crossAx val="1285532288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19944,13 +20142,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -21215,8 +21413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21354,292 +21552,480 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>122520</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>44581</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1543</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>21723</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1">
+        <v>104006</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1697</v>
+      </c>
       <c r="J3" s="1">
-        <v>2548</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
       <c r="M3" s="2">
-        <v>45574</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>45906</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1539</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>21265</v>
+      </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="S3" s="1">
+        <v>105044</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1693</v>
+      </c>
+      <c r="U3" s="1">
+        <v>21</v>
+      </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
       <c r="X3" s="1">
-        <v>47052</v>
-      </c>
-      <c r="Y3" s="2"/>
+        <v>45014</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1856</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="1">
+        <v>21553</v>
+      </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AD3" s="1">
+        <v>108324</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1664</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>17</v>
+      </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
       <c r="AI3" s="2">
-        <v>45672</v>
-      </c>
-      <c r="AJ3" s="2"/>
+        <v>45215</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1809</v>
+      </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
+      <c r="AO3" s="1">
+        <v>104840</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1556</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>41320</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>42587</v>
+      </c>
+      <c r="C4" s="2">
+        <v>264</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>17493</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>93994</v>
+      </c>
+      <c r="I4" s="1">
+        <v>402</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
       <c r="M4" s="2">
-        <v>45726</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>42461</v>
+      </c>
+      <c r="N4" s="2">
+        <v>258</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>17693</v>
+      </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="1">
+        <v>92792</v>
+      </c>
+      <c r="T4" s="1">
+        <v>257</v>
+      </c>
+      <c r="U4" s="1">
+        <v>6</v>
+      </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
       <c r="X4" s="1">
-        <v>45969</v>
-      </c>
-      <c r="Y4" s="2"/>
+        <v>42695</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>282</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="1">
+        <v>17196</v>
+      </c>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AD4" s="1">
+        <v>92635</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>256</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>6</v>
+      </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
       <c r="AI4" s="2">
-        <v>45302</v>
-      </c>
-      <c r="AJ4" s="2"/>
+        <v>42497</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>239</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
+      <c r="AO4" s="1">
+        <v>93221</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>248</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>40612</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>42576</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>15035</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1">
+        <v>67701</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>47017</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>42124</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>15057</v>
+      </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="1">
+        <v>66818</v>
+      </c>
+      <c r="T5" s="1">
+        <v>44</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
       <c r="X5" s="1">
-        <v>46317</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>42260</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>40</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1">
+        <v>14645</v>
+      </c>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AD5" s="1">
+        <v>65339</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
       <c r="AI5" s="2">
-        <v>46746</v>
-      </c>
-      <c r="AJ5" s="2"/>
+        <v>42348</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>43</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
+      <c r="AO5" s="1">
+        <v>68857</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>40660</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>41981</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>14047</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1">
+        <v>77965</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
       <c r="M6" s="2">
-        <v>46958</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>42797</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>14170</v>
+      </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="1">
+        <v>72115</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
       <c r="X6" s="1">
-        <v>45587</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>42248</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>8</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="AB6" s="1">
+        <v>14125</v>
+      </c>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AD6" s="1">
+        <v>74067</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>3</v>
+      </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
       <c r="AI6" s="2">
-        <v>45487</v>
-      </c>
-      <c r="AJ6" s="2"/>
+        <v>43001</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>9</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="AO6" s="1">
+        <v>73472</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>40908</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>42023</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>11897</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1">
+        <v>51526</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
       <c r="M7" s="2">
-        <v>46326</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>42164</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>11701</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="1">
+        <v>54831</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3</v>
+      </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
       <c r="X7" s="1">
-        <v>45596</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>42030</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>3</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1">
+        <v>11832</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AD7" s="1">
+        <v>54838</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
       <c r="AI7" s="2">
-        <v>46189</v>
-      </c>
-      <c r="AJ7" s="2"/>
+        <v>42216</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>10</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AO7" s="1">
+        <v>52418</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -21679,7 +22065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -1094,12 +1094,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1228906512"/>
-        <c:axId val="1228905968"/>
+        <c:axId val="1879809216"/>
+        <c:axId val="1879821184"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228906512"/>
+        <c:axId val="1879809216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228905968"/>
+        <c:crossAx val="1879821184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1205,7 +1205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228905968"/>
+        <c:axId val="1879821184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1318,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228906512"/>
+        <c:crossAx val="1879809216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,12 +2328,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285533376"/>
-        <c:axId val="1285523584"/>
+        <c:axId val="1935565520"/>
+        <c:axId val="1935572048"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285533376"/>
+        <c:axId val="1935565520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285523584"/>
+        <c:crossAx val="1935572048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285523584"/>
+        <c:axId val="1935572048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2552,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285533376"/>
+        <c:crossAx val="1935565520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,12 +3562,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285531744"/>
-        <c:axId val="1285521952"/>
+        <c:axId val="1935567696"/>
+        <c:axId val="1935578576"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285531744"/>
+        <c:axId val="1935567696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285521952"/>
+        <c:crossAx val="1935578576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285521952"/>
+        <c:axId val="1935578576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3786,7 +3786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285531744"/>
+        <c:crossAx val="1935567696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,12 +4813,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1228903792"/>
-        <c:axId val="1228899984"/>
+        <c:axId val="1879807040"/>
+        <c:axId val="1879817920"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228903792"/>
+        <c:axId val="1879807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,7 +4916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228899984"/>
+        <c:crossAx val="1879817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4924,7 +4924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228899984"/>
+        <c:axId val="1879817920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5037,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228903792"/>
+        <c:crossAx val="1879807040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5966,8 +5966,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1228901072"/>
-        <c:axId val="1228904336"/>
+        <c:axId val="1879807584"/>
+        <c:axId val="1879808128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6074,7 +6074,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228901072"/>
+        <c:axId val="1879807584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228904336"/>
+        <c:crossAx val="1879808128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6180,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228904336"/>
+        <c:axId val="1879808128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6293,7 +6293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228901072"/>
+        <c:crossAx val="1879807584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7303,12 +7303,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1228902704"/>
-        <c:axId val="1228909776"/>
+        <c:axId val="1879814112"/>
+        <c:axId val="1879810304"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228902704"/>
+        <c:axId val="1879814112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228909776"/>
+        <c:crossAx val="1879810304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7414,7 +7414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228909776"/>
+        <c:axId val="1879810304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7527,7 +7527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228902704"/>
+        <c:crossAx val="1879814112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8296,8 +8296,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1228911408"/>
-        <c:axId val="1228911952"/>
+        <c:axId val="1879813024"/>
+        <c:axId val="1879820096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8599,7 +8599,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228911408"/>
+        <c:axId val="1879813024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,7 +8698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228911952"/>
+        <c:crossAx val="1879820096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8706,7 +8706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228911952"/>
+        <c:axId val="1879820096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8820,7 +8820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228911408"/>
+        <c:crossAx val="1879813024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9466,8 +9466,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285519232"/>
-        <c:axId val="1285528480"/>
+        <c:axId val="1935568240"/>
+        <c:axId val="1935576400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9882,7 +9882,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285519232"/>
+        <c:axId val="1935568240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9980,7 +9980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285528480"/>
+        <c:crossAx val="1935576400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9988,7 +9988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285528480"/>
+        <c:axId val="1935576400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10101,7 +10101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285519232"/>
+        <c:crossAx val="1935568240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11113,12 +11113,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285525216"/>
-        <c:axId val="1285524128"/>
+        <c:axId val="1935574768"/>
+        <c:axId val="1935574224"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285525216"/>
+        <c:axId val="1935574768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11216,7 +11216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285524128"/>
+        <c:crossAx val="1935574224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11224,7 +11224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285524128"/>
+        <c:axId val="1935574224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11337,7 +11337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285525216"/>
+        <c:crossAx val="1935574768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12090,8 +12090,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285526848"/>
-        <c:axId val="1285527392"/>
+        <c:axId val="1935580208"/>
+        <c:axId val="1935573136"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12422,7 +12422,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285526848"/>
+        <c:axId val="1935580208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12520,7 +12520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285527392"/>
+        <c:crossAx val="1935573136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12528,7 +12528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285527392"/>
+        <c:axId val="1935573136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12641,7 +12641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285526848"/>
+        <c:crossAx val="1935580208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13570,8 +13570,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285532288"/>
-        <c:axId val="1285532832"/>
+        <c:axId val="1935570960"/>
+        <c:axId val="1935579120"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13678,7 +13678,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285532288"/>
+        <c:axId val="1935570960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13776,7 +13776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285532832"/>
+        <c:crossAx val="1935579120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13784,7 +13784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285532832"/>
+        <c:axId val="1935579120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13897,7 +13897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285532288"/>
+        <c:crossAx val="1935570960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21631,7 +21631,9 @@
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="1">
+        <v>21052</v>
+      </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1">
         <v>104840</v>
@@ -21727,7 +21729,9 @@
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AM4" s="1">
+        <v>16946</v>
+      </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1">
         <v>93221</v>
@@ -21823,7 +21827,9 @@
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="1">
+        <v>14625</v>
+      </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1">
         <v>68857</v>
@@ -21919,7 +21925,9 @@
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="1">
+        <v>13966</v>
+      </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1">
         <v>73472</v>
@@ -22015,7 +22023,9 @@
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AM7" s="1">
+        <v>11382</v>
+      </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1">
         <v>52418</v>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -1094,12 +1094,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1879809216"/>
-        <c:axId val="1879821184"/>
+        <c:axId val="-2003916512"/>
+        <c:axId val="-2003908352"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1879809216"/>
+        <c:axId val="-2003916512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879821184"/>
+        <c:crossAx val="-2003908352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1205,7 +1205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879821184"/>
+        <c:axId val="-2003908352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1318,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879809216"/>
+        <c:crossAx val="-2003916512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,12 +2328,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1935565520"/>
-        <c:axId val="1935572048"/>
+        <c:axId val="-1938651520"/>
+        <c:axId val="-1938650432"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1935565520"/>
+        <c:axId val="-1938651520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935572048"/>
+        <c:crossAx val="-1938650432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935572048"/>
+        <c:axId val="-1938650432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2552,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935565520"/>
+        <c:crossAx val="-1938651520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,12 +3562,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1935567696"/>
-        <c:axId val="1935578576"/>
+        <c:axId val="-1938648800"/>
+        <c:axId val="-1938648256"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1935567696"/>
+        <c:axId val="-1938648800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935578576"/>
+        <c:crossAx val="-1938648256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935578576"/>
+        <c:axId val="-1938648256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3786,7 +3786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935567696"/>
+        <c:crossAx val="-1938648800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,12 +4813,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1879807040"/>
-        <c:axId val="1879817920"/>
+        <c:axId val="-2003915424"/>
+        <c:axId val="-2003917600"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1879807040"/>
+        <c:axId val="-2003915424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,7 +4916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879817920"/>
+        <c:crossAx val="-2003917600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4924,7 +4924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879817920"/>
+        <c:axId val="-2003917600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5037,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879807040"/>
+        <c:crossAx val="-2003915424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5966,8 +5966,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1879807584"/>
-        <c:axId val="1879808128"/>
+        <c:axId val="-2003907264"/>
+        <c:axId val="-2003902368"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -6074,7 +6074,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1879807584"/>
+        <c:axId val="-2003907264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879808128"/>
+        <c:crossAx val="-2003902368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6180,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879808128"/>
+        <c:axId val="-2003902368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6293,7 +6293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879807584"/>
+        <c:crossAx val="-2003907264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7303,12 +7303,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1879814112"/>
-        <c:axId val="1879810304"/>
+        <c:axId val="-2003909440"/>
+        <c:axId val="-2003906720"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1879814112"/>
+        <c:axId val="-2003909440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879810304"/>
+        <c:crossAx val="-2003906720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7414,7 +7414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879810304"/>
+        <c:axId val="-2003906720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7527,7 +7527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879814112"/>
+        <c:crossAx val="-2003909440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8296,8 +8296,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1879813024"/>
-        <c:axId val="1879820096"/>
+        <c:axId val="-2003912160"/>
+        <c:axId val="-2003906176"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8599,7 +8599,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1879813024"/>
+        <c:axId val="-2003912160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,7 +8698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879820096"/>
+        <c:crossAx val="-2003906176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8706,7 +8706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879820096"/>
+        <c:axId val="-2003906176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8820,7 +8820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879813024"/>
+        <c:crossAx val="-2003912160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9466,8 +9466,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1935568240"/>
-        <c:axId val="1935576400"/>
+        <c:axId val="-1938654784"/>
+        <c:axId val="-1938656960"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9882,7 +9882,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1935568240"/>
+        <c:axId val="-1938654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9980,7 +9980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935576400"/>
+        <c:crossAx val="-1938656960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9988,7 +9988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935576400"/>
+        <c:axId val="-1938656960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10101,7 +10101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935568240"/>
+        <c:crossAx val="-1938654784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11113,12 +11113,12 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1935574768"/>
-        <c:axId val="1935574224"/>
+        <c:axId val="-1938660224"/>
+        <c:axId val="-1938659680"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1935574768"/>
+        <c:axId val="-1938660224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11216,7 +11216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935574224"/>
+        <c:crossAx val="-1938659680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11224,7 +11224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935574224"/>
+        <c:axId val="-1938659680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11337,7 +11337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935574768"/>
+        <c:crossAx val="-1938660224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12090,8 +12090,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1935580208"/>
-        <c:axId val="1935573136"/>
+        <c:axId val="-1938646624"/>
+        <c:axId val="-1938657504"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12422,7 +12422,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1935580208"/>
+        <c:axId val="-1938646624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12520,7 +12520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935573136"/>
+        <c:crossAx val="-1938657504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12528,7 +12528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935573136"/>
+        <c:axId val="-1938657504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12641,7 +12641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935580208"/>
+        <c:crossAx val="-1938646624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13570,8 +13570,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1935570960"/>
-        <c:axId val="1935579120"/>
+        <c:axId val="-1938655328"/>
+        <c:axId val="-1938653696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13678,7 +13678,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1935570960"/>
+        <c:axId val="-1938655328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13776,7 +13776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935579120"/>
+        <c:crossAx val="-1938653696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13784,7 +13784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935579120"/>
+        <c:axId val="-1938653696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13897,7 +13897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935570960"/>
+        <c:crossAx val="-1938655328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23258,254 +23258,490 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>75103</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>41382</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>5548</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1">
+        <v>280970</v>
+      </c>
+      <c r="I3" s="1">
+        <v>104</v>
+      </c>
       <c r="J3" s="1">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>42836</v>
+      </c>
+      <c r="N3" s="2">
+        <v>38</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>5825</v>
+      </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="S3" s="1">
+        <v>279554</v>
+      </c>
+      <c r="T3" s="1">
+        <v>105</v>
+      </c>
+      <c r="U3" s="1">
+        <v>13</v>
+      </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="1">
+        <v>46923</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>35</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="1">
+        <v>5971</v>
+      </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AD3" s="1">
+        <v>302514</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>13</v>
+      </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AI3" s="2">
+        <v>46570</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>35</v>
+      </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="1">
+        <v>5604</v>
+      </c>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
+      <c r="AO3" s="1">
+        <v>293843</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>104</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>39979</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>5230</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>236660</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>46843</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>5186</v>
+      </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="1">
+        <v>235036</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="2"/>
+      <c r="X4" s="1">
+        <v>46576</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="1">
+        <v>5535</v>
+      </c>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AD4" s="1">
+        <v>255992</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AI4" s="2">
+        <v>46607</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>3</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AM4" s="1">
+        <v>5239</v>
+      </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
+      <c r="AO4" s="1">
+        <v>246886</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>39756</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>4566</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1">
+        <v>191640</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2">
+        <v>46179</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>4465</v>
+      </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="1">
+        <v>191588</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="2"/>
+      <c r="X5" s="1">
+        <v>46485</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1">
+        <v>4560</v>
+      </c>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AD5" s="1">
+        <v>205611</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AI5" s="2">
+        <v>46834</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>2</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="1">
+        <v>4476</v>
+      </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
+      <c r="AO5" s="1">
+        <v>199245</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>39860</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>4459</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1">
+        <v>152394</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>46644</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>4453</v>
+      </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="1">
+        <v>153173</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="1">
+        <v>46027</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="AB6" s="1">
+        <v>4481</v>
+      </c>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AD6" s="1">
+        <v>157009</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AI6" s="2">
+        <v>47012</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="1">
+        <v>4500</v>
+      </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="AO6" s="1">
+        <v>160671</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>39340</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>3608</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1">
+        <v>119719</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2">
+        <v>46754</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>3598</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="1">
+        <v>125514</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="1">
+        <v>46027</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1">
+        <v>3484</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AD7" s="1">
+        <v>123447</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
+      </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AI7" s="2">
+        <v>46020</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AM7" s="1">
+        <v>3686</v>
+      </c>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AO7" s="1">
+        <v>129322</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/RunningTimeResult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ay\Documents\GitHub\Mining-Top-K-Co-Occurrence-Items\MiningTopKCoOccurrenceItemsConsole\testResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cao hoc\Codes\Mining-Top-K-Co-Occurrence-Items\MiningTopKCoOccurrenceItemsConsole\testResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -704,8 +703,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="241215296"/>
-        <c:axId val="241219608"/>
+        <c:axId val="740366144"/>
+        <c:axId val="740357984"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1120,7 +1119,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="241215296"/>
+        <c:axId val="740366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1151,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1219,7 +1217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241219608"/>
+        <c:crossAx val="740357984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241219608"/>
+        <c:axId val="740357984"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1274,7 +1272,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1341,7 +1338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241215296"/>
+        <c:crossAx val="740366144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1355,7 +1352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2273,41 +2269,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="6" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="7" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="6" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="7" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="6" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2435,597 +2431,892 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>28989</v>
+        <v>25337</v>
       </c>
       <c r="C3" s="2">
-        <v>20280</v>
-      </c>
-      <c r="D3" s="1">
-        <v>646326</v>
-      </c>
-      <c r="E3" s="1">
-        <v>582273</v>
-      </c>
+        <v>20383</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1">
-        <v>10109</v>
+        <v>8336</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>21759</v>
+        <v>19797</v>
       </c>
       <c r="I3" s="1">
-        <v>14374</v>
+        <v>13182</v>
       </c>
       <c r="J3" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
       <c r="M3" s="2">
-        <v>33583</v>
+        <v>30743</v>
       </c>
       <c r="N3" s="2">
-        <v>26036</v>
-      </c>
-      <c r="O3" s="1">
-        <v>602043</v>
-      </c>
-      <c r="P3" s="1">
-        <v>556368</v>
-      </c>
+        <v>20814</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1">
-        <v>9941</v>
+        <v>7926</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>21769</v>
+        <v>20092</v>
       </c>
       <c r="T3" s="1">
-        <v>14602</v>
+        <v>13104</v>
       </c>
       <c r="U3" s="1">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
       <c r="X3" s="1">
-        <v>38515</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>26107</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>594190</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>552327</v>
-      </c>
+        <v>28777</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>20535</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
       <c r="AB3" s="1">
-        <v>9954</v>
+        <v>8057</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1">
-        <v>21751</v>
+        <v>20418</v>
       </c>
       <c r="AE3" s="1">
-        <v>14524</v>
+        <v>13165</v>
       </c>
       <c r="AF3" s="1">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
       <c r="AI3" s="2">
-        <v>36403</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>25812</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>595284</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>556367</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>9864</v>
-      </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1">
-        <v>24851</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>14568</v>
+        <v>29946</v>
+      </c>
+      <c r="AJ3">
+        <v>20369</v>
+      </c>
+      <c r="AM3">
+        <v>8037</v>
+      </c>
+      <c r="AO3">
+        <v>20104</v>
+      </c>
+      <c r="AP3">
+        <v>13319</v>
       </c>
       <c r="AQ3" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>27225</v>
+        <v>23397</v>
       </c>
       <c r="C4" s="2">
-        <v>21670</v>
-      </c>
-      <c r="D4" s="1">
-        <v>481407</v>
-      </c>
-      <c r="E4" s="1">
-        <v>444984</v>
-      </c>
+        <v>17672</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>8465</v>
+        <v>6889</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>18961</v>
+        <v>18107</v>
       </c>
       <c r="I4" s="1">
-        <v>11538</v>
+        <v>10553</v>
       </c>
       <c r="J4" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
       <c r="M4" s="2">
-        <v>30134</v>
+        <v>27004</v>
       </c>
       <c r="N4" s="2">
-        <v>22072</v>
-      </c>
-      <c r="O4" s="1">
-        <v>461454</v>
-      </c>
-      <c r="P4" s="1">
-        <v>424947</v>
-      </c>
+        <v>17485</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1">
-        <v>8289</v>
+        <v>6657</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>19320</v>
+        <v>18121</v>
       </c>
       <c r="T4" s="1">
-        <v>11623</v>
+        <v>10583</v>
       </c>
       <c r="U4" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
       <c r="X4" s="1">
-        <v>33693</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>21857</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>465032</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>432462</v>
-      </c>
+        <v>25729</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>17459</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1">
-        <v>8246</v>
+        <v>6811</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1">
-        <v>19162</v>
+        <v>18488</v>
       </c>
       <c r="AE4" s="1">
-        <v>11425</v>
+        <v>10568</v>
       </c>
       <c r="AF4" s="1">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
       <c r="AI4" s="2">
-        <v>29683</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>21902</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>478284</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>449138</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>8344</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1">
-        <v>19124</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>11606</v>
+        <v>25044</v>
+      </c>
+      <c r="AJ4">
+        <v>17864</v>
+      </c>
+      <c r="AM4">
+        <v>6834</v>
+      </c>
+      <c r="AO4">
+        <v>17672</v>
+      </c>
+      <c r="AP4">
+        <v>10626</v>
       </c>
       <c r="AQ4" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>23453</v>
+        <v>19626</v>
       </c>
       <c r="C5" s="2">
-        <v>15838</v>
-      </c>
-      <c r="D5" s="1">
-        <v>316812</v>
-      </c>
-      <c r="E5" s="1">
-        <v>291604</v>
-      </c>
+        <v>13103</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>6668</v>
+        <v>5418</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>16202</v>
+        <v>14808</v>
       </c>
       <c r="I5" s="1">
-        <v>7801</v>
+        <v>7142</v>
       </c>
       <c r="J5" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>27019</v>
+        <v>24534</v>
       </c>
       <c r="N5" s="2">
-        <v>15968</v>
-      </c>
-      <c r="O5" s="1">
-        <v>301355</v>
-      </c>
-      <c r="P5" s="1">
-        <v>277388</v>
-      </c>
+        <v>14194</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>6674</v>
+        <v>5403</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>16219</v>
+        <v>15151</v>
       </c>
       <c r="T5" s="1">
-        <v>8052</v>
+        <v>7219</v>
       </c>
       <c r="U5" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
       <c r="X5" s="1">
-        <v>28703</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>15855</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>311249</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>285966</v>
-      </c>
+        <v>21157</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>13130</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1">
-        <v>6623</v>
+        <v>5462</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1">
-        <v>16180</v>
+        <v>15121</v>
       </c>
       <c r="AE5" s="1">
-        <v>8000</v>
+        <v>7175</v>
       </c>
       <c r="AF5" s="1">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
       <c r="AI5" s="2">
-        <v>23465</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>15663</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>325448</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>305456</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>6720</v>
-      </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1">
-        <v>15926</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>8156</v>
+        <v>21369</v>
+      </c>
+      <c r="AJ5">
+        <v>13142</v>
+      </c>
+      <c r="AM5">
+        <v>5444</v>
+      </c>
+      <c r="AO5">
+        <v>15392</v>
+      </c>
+      <c r="AP5">
+        <v>7348</v>
       </c>
       <c r="AQ5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>24899</v>
+        <v>17012</v>
       </c>
       <c r="C6" s="2">
-        <v>11345</v>
-      </c>
-      <c r="D6" s="1">
-        <v>211744</v>
-      </c>
-      <c r="E6" s="1">
-        <v>191859</v>
-      </c>
+        <v>10103</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>5496</v>
+        <v>4428</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>13891</v>
+        <v>12773</v>
       </c>
       <c r="I6" s="1">
-        <v>5494</v>
+        <v>5065</v>
       </c>
       <c r="J6" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
       <c r="M6" s="2">
-        <v>20832</v>
+        <v>19240</v>
       </c>
       <c r="N6" s="2">
-        <v>11747</v>
-      </c>
-      <c r="O6" s="1">
-        <v>200820</v>
-      </c>
-      <c r="P6" s="1">
-        <v>182271</v>
-      </c>
+        <v>9945</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>5351</v>
+        <v>4418</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>13606</v>
+        <v>13243</v>
       </c>
       <c r="T6" s="1">
-        <v>5748</v>
+        <v>5099</v>
       </c>
       <c r="U6" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
       <c r="X6" s="1">
-        <v>23853</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>11402</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>208183</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>192190</v>
-      </c>
+        <v>17796</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>10078</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1">
-        <v>5360</v>
+        <v>4329</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <v>13614</v>
+        <v>13181</v>
       </c>
       <c r="AE6" s="1">
-        <v>5550</v>
+        <v>5015</v>
       </c>
       <c r="AF6" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
       <c r="AI6" s="2">
-        <v>19492</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>11331</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>222843</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>207824</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>5452</v>
-      </c>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1">
-        <v>13554</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>5773</v>
+        <v>19483</v>
+      </c>
+      <c r="AJ6">
+        <v>10092</v>
+      </c>
+      <c r="AM6">
+        <v>4378</v>
+      </c>
+      <c r="AO6">
+        <v>13023</v>
+      </c>
+      <c r="AP6">
+        <v>5398</v>
       </c>
       <c r="AQ6" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>17991</v>
+        <v>15423</v>
       </c>
       <c r="C7" s="2">
-        <v>9016</v>
-      </c>
-      <c r="D7" s="1">
-        <v>153391</v>
-      </c>
-      <c r="E7" s="1">
-        <v>136466</v>
-      </c>
+        <v>7941</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>4538</v>
+        <v>3614</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>12523</v>
+        <v>12098</v>
       </c>
       <c r="I7" s="1">
-        <v>4047</v>
+        <v>3636</v>
       </c>
       <c r="J7" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
       <c r="M7" s="2">
-        <v>18149</v>
+        <v>16974</v>
       </c>
       <c r="N7" s="2">
-        <v>8924</v>
-      </c>
-      <c r="O7" s="1">
-        <v>144337</v>
-      </c>
-      <c r="P7" s="1">
-        <v>127929</v>
-      </c>
+        <v>7896</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>4534</v>
+        <v>3682</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>12433</v>
+        <v>11980</v>
       </c>
       <c r="T7" s="1">
-        <v>4148</v>
+        <v>3781</v>
       </c>
       <c r="U7" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
       <c r="X7" s="1">
-        <v>19808</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>9192</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>151146</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>136754</v>
-      </c>
+        <v>16669</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>8037</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1">
-        <v>4477</v>
+        <v>3668</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1">
-        <v>12932</v>
+        <v>11967</v>
       </c>
       <c r="AE7" s="1">
-        <v>3968</v>
+        <v>3744</v>
       </c>
       <c r="AF7" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
       <c r="AI7" s="2">
-        <v>17020</v>
-      </c>
-      <c r="AJ7" s="2">
+        <v>16829</v>
+      </c>
+      <c r="AJ7">
+        <v>8132</v>
+      </c>
+      <c r="AM7">
+        <v>3695</v>
+      </c>
+      <c r="AO7">
+        <v>12139</v>
+      </c>
+      <c r="AP7">
+        <v>3995</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>20280</v>
+      </c>
+      <c r="D10" s="1">
+        <v>646326</v>
+      </c>
+      <c r="E10" s="1">
+        <v>582273</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10109</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>21759</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14374</v>
+      </c>
+      <c r="N10" s="2">
+        <v>26036</v>
+      </c>
+      <c r="O10" s="1">
+        <v>602043</v>
+      </c>
+      <c r="P10" s="1">
+        <v>556368</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>9941</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <v>21769</v>
+      </c>
+      <c r="T10" s="1">
+        <v>14602</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>26107</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>594190</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>552327</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>9954</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1">
+        <v>21751</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>14524</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>25812</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>595284</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>556367</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>9864</v>
+      </c>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1">
+        <v>24851</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>14568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>21670</v>
+      </c>
+      <c r="D11" s="1">
+        <v>481407</v>
+      </c>
+      <c r="E11" s="1">
+        <v>444984</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8465</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>18961</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11538</v>
+      </c>
+      <c r="N11" s="2">
+        <v>22072</v>
+      </c>
+      <c r="O11" s="1">
+        <v>461454</v>
+      </c>
+      <c r="P11" s="1">
+        <v>424947</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8289</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
+        <v>19320</v>
+      </c>
+      <c r="T11" s="1">
+        <v>11623</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>21857</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>465032</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>432462</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>8246</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1">
+        <v>19162</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>11425</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>21902</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>478284</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>449138</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>8344</v>
+      </c>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1">
+        <v>19124</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>11606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>15838</v>
+      </c>
+      <c r="D12" s="1">
+        <v>316812</v>
+      </c>
+      <c r="E12" s="1">
+        <v>291604</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6668</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>16202</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7801</v>
+      </c>
+      <c r="N12" s="2">
+        <v>15968</v>
+      </c>
+      <c r="O12" s="1">
+        <v>301355</v>
+      </c>
+      <c r="P12" s="1">
+        <v>277388</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>6674</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1">
+        <v>16219</v>
+      </c>
+      <c r="T12" s="1">
+        <v>8052</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>15855</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>311249</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>285966</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>6623</v>
+      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1">
+        <v>16180</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>15663</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>325448</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>305456</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>6720</v>
+      </c>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1">
+        <v>15926</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>11345</v>
+      </c>
+      <c r="D13" s="1">
+        <v>211744</v>
+      </c>
+      <c r="E13" s="1">
+        <v>191859</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5496</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>13891</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5494</v>
+      </c>
+      <c r="N13" s="2">
+        <v>11747</v>
+      </c>
+      <c r="O13" s="1">
+        <v>200820</v>
+      </c>
+      <c r="P13" s="1">
+        <v>182271</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5351</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
+        <v>13606</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5748</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>11402</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>208183</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>192190</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>5360</v>
+      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1">
+        <v>13614</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>5550</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>11331</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>222843</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>207824</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>5452</v>
+      </c>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1">
+        <v>13554</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>9016</v>
+      </c>
+      <c r="D14" s="1">
+        <v>153391</v>
+      </c>
+      <c r="E14" s="1">
+        <v>136466</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4538</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>12523</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4047</v>
+      </c>
+      <c r="N14" s="2">
+        <v>8924</v>
+      </c>
+      <c r="O14" s="1">
+        <v>144337</v>
+      </c>
+      <c r="P14" s="1">
+        <v>127929</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4534</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
+        <v>12433</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4148</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>9192</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>151146</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>136754</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>4477</v>
+      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1">
+        <v>12932</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>3968</v>
+      </c>
+      <c r="AJ14" s="2">
         <v>8735</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK14" s="1">
         <v>162504</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL14" s="1">
         <v>150501</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM14" s="1">
         <v>4556</v>
       </c>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1">
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1">
         <v>12444</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP14" s="1">
         <v>3920</v>
       </c>
-      <c r="AQ7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="1">
         <v>4</v>
       </c>
@@ -3043,9 +3334,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3059,7 +3350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3173,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3271,7 +3562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3369,7 +3660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3467,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3565,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -3663,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>43667</v>
       </c>
@@ -3671,22 +3962,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>41320</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>40612</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>40660</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>40908</v>
       </c>
@@ -3704,9 +3995,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +4011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3834,7 +4125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3924,7 +4215,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -4014,7 +4305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -4104,7 +4395,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4194,7 +4485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -4284,7 +4575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>43667</v>
       </c>
@@ -4292,22 +4583,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>41320</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>40612</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>40660</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>40908</v>
       </c>
@@ -4326,9 +4617,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -4456,7 +4747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4506,7 +4797,7 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -4556,7 +4847,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -4606,7 +4897,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4656,7 +4947,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -4706,7 +4997,7 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>43667</v>
       </c>
@@ -4714,22 +5005,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>41320</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>40612</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>40660</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>40908</v>
       </c>
@@ -4747,9 +5038,9 @@
       <selection activeCell="AI3" sqref="AI3:AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +5054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -4877,7 +5168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4975,7 +5266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5073,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5171,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -5269,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -5374,18 +5665,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10:AQ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
@@ -5395,7 +5686,7 @@
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -5523,573 +5814,943 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>86581</v>
-      </c>
-      <c r="C3" s="2">
-        <v>64763</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4723582</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4762290</v>
-      </c>
-      <c r="F3" s="1">
-        <v>72188</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>278011</v>
-      </c>
-      <c r="I3" s="1">
-        <v>99043</v>
-      </c>
-      <c r="J3" s="1">
-        <v>912</v>
+      <c r="B3">
+        <v>81333</v>
+      </c>
+      <c r="C3">
+        <v>57425</v>
+      </c>
+      <c r="F3">
+        <v>48991</v>
+      </c>
+      <c r="H3">
+        <v>224549</v>
+      </c>
+      <c r="I3">
+        <v>97063</v>
+      </c>
+      <c r="J3">
+        <v>885</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="2">
-        <v>86878</v>
-      </c>
-      <c r="N3" s="2">
-        <v>66285</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4215955</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4113314</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>59270</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>242880</v>
-      </c>
-      <c r="T3" s="1">
-        <v>100182</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2232</v>
+      <c r="M3">
+        <v>86632</v>
+      </c>
+      <c r="N3">
+        <v>67632</v>
+      </c>
+      <c r="Q3">
+        <v>49174</v>
+      </c>
+      <c r="S3">
+        <v>225632</v>
+      </c>
+      <c r="T3">
+        <v>98509</v>
+      </c>
+      <c r="U3">
+        <v>960</v>
       </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="2">
-        <v>87333</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>66341</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>3692619</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>3723225</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>58813</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1">
-        <v>240177</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>102694</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2025</v>
+      <c r="X3">
+        <v>85153</v>
+      </c>
+      <c r="Y3">
+        <v>68931</v>
+      </c>
+      <c r="AB3">
+        <v>52433</v>
+      </c>
+      <c r="AD3">
+        <v>225383</v>
+      </c>
+      <c r="AE3">
+        <v>98594</v>
+      </c>
+      <c r="AF3">
+        <v>958</v>
       </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
-      <c r="AI3" s="2">
-        <v>87058</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>66253</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>3247209</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>3216586</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>58363</v>
-      </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1">
-        <v>239586</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>100944</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AI3">
+        <v>85658</v>
+      </c>
+      <c r="AJ3">
+        <v>77670</v>
+      </c>
+      <c r="AM3">
+        <v>49007</v>
+      </c>
+      <c r="AO3">
+        <v>227994</v>
+      </c>
+      <c r="AP3">
+        <v>98246</v>
+      </c>
+      <c r="AQ3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>69257</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44582</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2914924</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2833773</v>
-      </c>
-      <c r="F4" s="1">
-        <v>49230</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>237534</v>
-      </c>
-      <c r="I4" s="1">
-        <v>64395</v>
-      </c>
-      <c r="J4" s="1">
-        <v>546</v>
+      <c r="B4">
+        <v>65803</v>
+      </c>
+      <c r="C4">
+        <v>43682</v>
+      </c>
+      <c r="F4">
+        <v>39931</v>
+      </c>
+      <c r="H4">
+        <v>198309</v>
+      </c>
+      <c r="I4">
+        <v>62523</v>
+      </c>
+      <c r="J4">
+        <v>559</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
-        <v>69175</v>
-      </c>
-      <c r="N4" s="2">
-        <v>44049</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2595138</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2513719</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>46790</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>212435</v>
-      </c>
-      <c r="T4" s="1">
-        <v>63733</v>
-      </c>
-      <c r="U4" s="1">
-        <v>607</v>
+      <c r="M4">
+        <v>69322</v>
+      </c>
+      <c r="N4">
+        <v>45703</v>
+      </c>
+      <c r="Q4">
+        <v>38884</v>
+      </c>
+      <c r="S4">
+        <v>202741</v>
+      </c>
+      <c r="T4">
+        <v>62639</v>
+      </c>
+      <c r="U4">
+        <v>603</v>
       </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="2">
-        <v>69264</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>44983</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>2243293</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>2323269</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>47367</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1">
-        <v>213693</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>63800</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>562</v>
+      <c r="X4">
+        <v>68386</v>
+      </c>
+      <c r="Y4">
+        <v>48887</v>
+      </c>
+      <c r="AB4">
+        <v>40641</v>
+      </c>
+      <c r="AD4">
+        <v>200791</v>
+      </c>
+      <c r="AE4">
+        <v>62941</v>
+      </c>
+      <c r="AF4">
+        <v>606</v>
       </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2">
-        <v>69032</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>44608</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>1953011</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>2004516</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>47429</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1">
-        <v>215015</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>64340</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AI4">
+        <v>68821</v>
+      </c>
+      <c r="AJ4">
+        <v>53544</v>
+      </c>
+      <c r="AM4">
+        <v>39135</v>
+      </c>
+      <c r="AO4">
+        <v>201379</v>
+      </c>
+      <c r="AP4">
+        <v>63682</v>
+      </c>
+      <c r="AQ4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>59871</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32400</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1933514</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1885158</v>
-      </c>
-      <c r="F5" s="1">
-        <v>36563</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>174998</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44433</v>
-      </c>
-      <c r="J5" s="1">
-        <v>365</v>
+      <c r="B5">
+        <v>57577</v>
+      </c>
+      <c r="C5">
+        <v>33323</v>
+      </c>
+      <c r="F5">
+        <v>31338</v>
+      </c>
+      <c r="H5">
+        <v>163865</v>
+      </c>
+      <c r="I5">
+        <v>43911</v>
+      </c>
+      <c r="J5">
+        <v>398</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="2">
-        <v>59840</v>
-      </c>
-      <c r="N5" s="2">
-        <v>33598</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1717648</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1669775</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>36408</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>177491</v>
-      </c>
-      <c r="T5" s="1">
-        <v>44286</v>
-      </c>
-      <c r="U5" s="1">
-        <v>361</v>
+      <c r="M5">
+        <v>60176</v>
+      </c>
+      <c r="N5">
+        <v>33268</v>
+      </c>
+      <c r="Q5">
+        <v>30690</v>
+      </c>
+      <c r="S5">
+        <v>165886</v>
+      </c>
+      <c r="T5">
+        <v>43976</v>
+      </c>
+      <c r="U5">
+        <v>388</v>
       </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="2">
-        <v>60681</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>32941</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1497908</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1441195</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>36692</v>
-      </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1">
-        <v>175891</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>44753</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>360</v>
+      <c r="X5">
+        <v>60607</v>
+      </c>
+      <c r="Y5">
+        <v>35663</v>
+      </c>
+      <c r="AB5">
+        <v>31061</v>
+      </c>
+      <c r="AD5">
+        <v>167836</v>
+      </c>
+      <c r="AE5">
+        <v>43105</v>
+      </c>
+      <c r="AF5">
+        <v>396</v>
       </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
-      <c r="AI5" s="2">
-        <v>60073</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>33431</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>1302956</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>1278853</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>36432</v>
-      </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1">
-        <v>177951</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>44644</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AI5">
+        <v>60683</v>
+      </c>
+      <c r="AJ5">
+        <v>40121</v>
+      </c>
+      <c r="AM5">
+        <v>30752</v>
+      </c>
+      <c r="AO5">
+        <v>166493</v>
+      </c>
+      <c r="AP5">
+        <v>43295</v>
+      </c>
+      <c r="AQ5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>54442</v>
-      </c>
-      <c r="C6" s="2">
-        <v>25783</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1349199</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1306252</v>
-      </c>
-      <c r="F6" s="1">
-        <v>27288</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>167732</v>
-      </c>
-      <c r="I6" s="1">
-        <v>32463</v>
-      </c>
-      <c r="J6" s="1">
-        <v>250</v>
+      <c r="B6">
+        <v>57445</v>
+      </c>
+      <c r="C6">
+        <v>25576</v>
+      </c>
+      <c r="F6">
+        <v>23379</v>
+      </c>
+      <c r="H6">
+        <v>160925</v>
+      </c>
+      <c r="I6">
+        <v>32387</v>
+      </c>
+      <c r="J6">
+        <v>286</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="2">
-        <v>54129</v>
-      </c>
-      <c r="N6" s="2">
-        <v>25762</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1191430</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1147994</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>28627</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>169079</v>
-      </c>
-      <c r="T6" s="1">
-        <v>31601</v>
-      </c>
-      <c r="U6" s="1">
-        <v>250</v>
+      <c r="M6">
+        <v>55069</v>
+      </c>
+      <c r="N6">
+        <v>26913</v>
+      </c>
+      <c r="Q6">
+        <v>24223</v>
+      </c>
+      <c r="S6">
+        <v>159027</v>
+      </c>
+      <c r="T6">
+        <v>31373</v>
+      </c>
+      <c r="U6">
+        <v>279</v>
       </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
-      <c r="X6" s="2">
-        <v>54792</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>25596</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1030702</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>978457</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>28267</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1">
-        <v>170374</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>32140</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>239</v>
+      <c r="X6">
+        <v>54997</v>
+      </c>
+      <c r="Y6">
+        <v>28071</v>
+      </c>
+      <c r="AB6">
+        <v>23800</v>
+      </c>
+      <c r="AD6">
+        <v>161222</v>
+      </c>
+      <c r="AE6">
+        <v>31568</v>
+      </c>
+      <c r="AF6">
+        <v>274</v>
       </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
-      <c r="AI6" s="2">
-        <v>54131</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>26494</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>895525</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>861730</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>27571</v>
-      </c>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1">
-        <v>169491</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>34149</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AI6">
+        <v>54969</v>
+      </c>
+      <c r="AJ6">
+        <v>26737</v>
+      </c>
+      <c r="AM6">
+        <v>23356</v>
+      </c>
+      <c r="AO6">
+        <v>159363</v>
+      </c>
+      <c r="AP6">
+        <v>31440</v>
+      </c>
+      <c r="AQ6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>41214</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12790</v>
-      </c>
-      <c r="D7" s="1">
-        <v>595114</v>
-      </c>
-      <c r="E7" s="1">
-        <v>559988</v>
-      </c>
-      <c r="F7" s="1">
-        <v>22394</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>131634</v>
-      </c>
-      <c r="I7" s="1">
-        <v>14092</v>
-      </c>
-      <c r="J7" s="1">
-        <v>93</v>
+      <c r="B7">
+        <v>45892</v>
+      </c>
+      <c r="C7">
+        <v>13230</v>
+      </c>
+      <c r="F7">
+        <v>19574</v>
+      </c>
+      <c r="H7">
+        <v>125581</v>
+      </c>
+      <c r="I7">
+        <v>14455</v>
+      </c>
+      <c r="J7">
+        <v>170</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="2">
-        <v>40874</v>
-      </c>
-      <c r="N7" s="2">
-        <v>12688</v>
-      </c>
-      <c r="O7" s="1">
-        <v>525835</v>
-      </c>
-      <c r="P7" s="1">
-        <v>605211</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>22231</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <v>132030</v>
-      </c>
-      <c r="T7" s="1">
-        <v>14407</v>
-      </c>
-      <c r="U7" s="1">
-        <v>81</v>
+      <c r="M7">
+        <v>42990</v>
+      </c>
+      <c r="N7">
+        <v>12371</v>
+      </c>
+      <c r="Q7">
+        <v>19635</v>
+      </c>
+      <c r="S7">
+        <v>124328</v>
+      </c>
+      <c r="T7">
+        <v>14469</v>
+      </c>
+      <c r="U7">
+        <v>137</v>
       </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="X7" s="2">
-        <v>40988</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>12825</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>458196</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>418940</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>22498</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1">
-        <v>131545</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>14329</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>87</v>
+      <c r="X7">
+        <v>42946</v>
+      </c>
+      <c r="Y7">
+        <v>13733</v>
+      </c>
+      <c r="AB7">
+        <v>19108</v>
+      </c>
+      <c r="AD7">
+        <v>124731</v>
+      </c>
+      <c r="AE7">
+        <v>14684</v>
+      </c>
+      <c r="AF7">
+        <v>121</v>
       </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7">
+        <v>42785</v>
+      </c>
+      <c r="AJ7">
+        <v>14280</v>
+      </c>
+      <c r="AM7">
+        <v>19342</v>
+      </c>
+      <c r="AO7">
+        <v>123932</v>
+      </c>
+      <c r="AP7">
+        <v>14186</v>
+      </c>
+      <c r="AQ7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>86581</v>
+      </c>
+      <c r="C10" s="2">
+        <v>64763</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4723582</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4762290</v>
+      </c>
+      <c r="F10" s="1">
+        <v>72188</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>278011</v>
+      </c>
+      <c r="I10" s="1">
+        <v>99043</v>
+      </c>
+      <c r="J10" s="1">
+        <v>912</v>
+      </c>
+      <c r="M10" s="2">
+        <v>86878</v>
+      </c>
+      <c r="N10" s="2">
+        <v>66285</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4215955</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4113314</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>59270</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <v>242880</v>
+      </c>
+      <c r="T10" s="1">
+        <v>100182</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2232</v>
+      </c>
+      <c r="X10" s="2">
+        <v>87333</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>66341</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3692619</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3723225</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>58813</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1">
+        <v>240177</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>102694</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>87058</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>66253</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>3247209</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>3216586</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>58363</v>
+      </c>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1">
+        <v>239586</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>100944</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>69257</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44582</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2914924</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2833773</v>
+      </c>
+      <c r="F11" s="1">
+        <v>49230</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>237534</v>
+      </c>
+      <c r="I11" s="1">
+        <v>64395</v>
+      </c>
+      <c r="J11" s="1">
+        <v>546</v>
+      </c>
+      <c r="M11" s="2">
+        <v>69175</v>
+      </c>
+      <c r="N11" s="2">
+        <v>44049</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2595138</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2513719</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>46790</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
+        <v>212435</v>
+      </c>
+      <c r="T11" s="1">
+        <v>63733</v>
+      </c>
+      <c r="U11" s="1">
+        <v>607</v>
+      </c>
+      <c r="X11" s="2">
+        <v>69264</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>44983</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2243293</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2323269</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>47367</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1">
+        <v>213693</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>63800</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>562</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>69032</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>44608</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1953011</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>2004516</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>47429</v>
+      </c>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1">
+        <v>215015</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>64340</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>59871</v>
+      </c>
+      <c r="C12" s="2">
+        <v>32400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1933514</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1885158</v>
+      </c>
+      <c r="F12" s="1">
+        <v>36563</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>174998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44433</v>
+      </c>
+      <c r="J12" s="1">
+        <v>365</v>
+      </c>
+      <c r="M12" s="2">
+        <v>59840</v>
+      </c>
+      <c r="N12" s="2">
+        <v>33598</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1717648</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1669775</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>36408</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1">
+        <v>177491</v>
+      </c>
+      <c r="T12" s="1">
+        <v>44286</v>
+      </c>
+      <c r="U12" s="1">
+        <v>361</v>
+      </c>
+      <c r="X12" s="2">
+        <v>60681</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>32941</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1497908</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1441195</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>36692</v>
+      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1">
+        <v>175891</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>360</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>60073</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>33431</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1302956</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1278853</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>36432</v>
+      </c>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1">
+        <v>177951</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>44644</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>54442</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25783</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1349199</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1306252</v>
+      </c>
+      <c r="F13" s="1">
+        <v>27288</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>167732</v>
+      </c>
+      <c r="I13" s="1">
+        <v>32463</v>
+      </c>
+      <c r="J13" s="1">
+        <v>250</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54129</v>
+      </c>
+      <c r="N13" s="2">
+        <v>25762</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1191430</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1147994</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>28627</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
+        <v>169079</v>
+      </c>
+      <c r="T13" s="1">
+        <v>31601</v>
+      </c>
+      <c r="U13" s="1">
+        <v>250</v>
+      </c>
+      <c r="X13" s="2">
+        <v>54792</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>25596</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1030702</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>978457</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>28267</v>
+      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1">
+        <v>170374</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>32140</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>239</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>54131</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>26494</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>895525</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>861730</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>27571</v>
+      </c>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1">
+        <v>169491</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>34149</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>41214</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12790</v>
+      </c>
+      <c r="D14" s="1">
+        <v>595114</v>
+      </c>
+      <c r="E14" s="1">
+        <v>559988</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22394</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>131634</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14092</v>
+      </c>
+      <c r="J14" s="1">
+        <v>93</v>
+      </c>
+      <c r="M14" s="2">
+        <v>40874</v>
+      </c>
+      <c r="N14" s="2">
+        <v>12688</v>
+      </c>
+      <c r="O14" s="1">
+        <v>525835</v>
+      </c>
+      <c r="P14" s="1">
+        <v>605211</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>22231</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
+        <v>132030</v>
+      </c>
+      <c r="T14" s="1">
+        <v>14407</v>
+      </c>
+      <c r="U14" s="1">
+        <v>81</v>
+      </c>
+      <c r="X14" s="2">
+        <v>40988</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>12825</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>458196</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>418940</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>22498</v>
+      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1">
+        <v>131545</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>14329</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>87</v>
+      </c>
+      <c r="AI14" s="2">
         <v>41222</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ14" s="2">
         <v>13598</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK14" s="1">
         <v>399457</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL14" s="1">
         <v>367889</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM14" s="1">
         <v>22794</v>
       </c>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1">
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1">
         <v>132791</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP14" s="1">
         <v>15096</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ14" s="1">
         <v>89</v>
       </c>
     </row>
